--- a/Advent of Code-Tracking-2022.xlsx
+++ b/Advent of Code-Tracking-2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aforgiel\source\repos\AdventOfCode2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B995ED9-014B-4281-A62E-6A3B84108046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465E33D2-1017-40F5-9118-8488007CCAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{DFEEB8B9-5279-44FF-B8AD-25775064E720}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">  8   02:32:31   18353      0   03:04:18   16187      0</t>
   </si>
@@ -141,49 +141,52 @@
     <t xml:space="preserve">15       0     0  </t>
   </si>
   <si>
-    <t xml:space="preserve">14       0     0  </t>
-  </si>
-  <si>
     <t>Index</t>
   </si>
   <si>
-    <t>13   13192  1183  ****</t>
-  </si>
-  <si>
-    <t>12   35664   956  ********</t>
-  </si>
-  <si>
-    <t>11   47795  7197  ***********</t>
-  </si>
-  <si>
-    <t>10   62113  3982  ************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9   62050  8738  *************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8   82543  5905  *****************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7   88627  1848  *****************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6  123354  1107  ***********************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5  125446  2182  ***********************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4  147227  2507  ***************************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3  159771  7859  ******************************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2  185885  8321  ***********************************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1  222093  9223  *****************************************</t>
+    <t xml:space="preserve"> 14   04:36:22   12478      0   05:12:09   12187      0</t>
+  </si>
+  <si>
+    <t>14   12240  1367  ****</t>
+  </si>
+  <si>
+    <t>13   31474  1088  *******</t>
+  </si>
+  <si>
+    <t>12   40365   851  ********</t>
+  </si>
+  <si>
+    <t>11   50589  7207  ***********</t>
+  </si>
+  <si>
+    <t>10   64511  4039  *************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9   63808  8893  *************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8   84392  5907  *****************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7   90217  1856  *****************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6  125271  1120  ***********************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5  127243  2209  ***********************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4  149167  2556  ***************************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3  161755  8016  ******************************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2  188027  8497  ***********************************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1  224572  9373  *****************************************</t>
   </si>
 </sst>
 </file>
@@ -556,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7C4CDB-368A-4162-8945-6456BB339A8F}">
-  <dimension ref="B2:N41"/>
+  <dimension ref="B2:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -587,7 +590,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:F2" si="2">FIND($D$28,$C2,D2+1)</f>
+        <f t="shared" ref="E2" si="2">FIND($D$28,$C2,D2+1)</f>
         <v>5</v>
       </c>
       <c r="F2" s="2">
@@ -624,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:F3" si="6">FIND($D$28,$C3,D3+1)</f>
+        <f t="shared" ref="E3" si="6">FIND($D$28,$C3,D3+1)</f>
         <v>5</v>
       </c>
       <c r="F3" s="2">
@@ -661,7 +664,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:F4" si="9">FIND($D$28,$C4,D4+1)</f>
+        <f t="shared" ref="E4" si="9">FIND($D$28,$C4,D4+1)</f>
         <v>5</v>
       </c>
       <c r="F4" s="2">
@@ -698,7 +701,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ref="E5:F5" si="10">FIND($D$28,$C5,D5+1)</f>
+        <f t="shared" ref="E5" si="10">FIND($D$28,$C5,D5+1)</f>
         <v>5</v>
       </c>
       <c r="F5" s="2">
@@ -735,7 +738,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" ref="E6:F6" si="11">FIND($D$28,$C6,D6+1)</f>
+        <f t="shared" ref="E6" si="11">FIND($D$28,$C6,D6+1)</f>
         <v>5</v>
       </c>
       <c r="F6" s="2">
@@ -772,7 +775,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" ref="E7:F7" si="12">FIND($D$28,$C7,D7+1)</f>
+        <f t="shared" ref="E7" si="12">FIND($D$28,$C7,D7+1)</f>
         <v>5</v>
       </c>
       <c r="F7" s="2">
@@ -809,7 +812,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" ref="E8:F8" si="13">FIND($D$28,$C8,D8+1)</f>
+        <f t="shared" ref="E8" si="13">FIND($D$28,$C8,D8+1)</f>
         <v>5</v>
       </c>
       <c r="F8" s="2">
@@ -846,7 +849,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ref="E9:F9" si="14">FIND($D$28,$C9,D9+1)</f>
+        <f t="shared" ref="E9" si="14">FIND($D$28,$C9,D9+1)</f>
         <v>5</v>
       </c>
       <c r="F9" s="2">
@@ -883,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" ref="E10:F10" si="15">FIND($D$28,$C10,D10+1)</f>
+        <f t="shared" ref="E10" si="15">FIND($D$28,$C10,D10+1)</f>
         <v>5</v>
       </c>
       <c r="F10" s="2">
@@ -920,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ref="E11:F11" si="16">FIND($D$28,$C11,D11+1)</f>
+        <f t="shared" ref="E11" si="16">FIND($D$28,$C11,D11+1)</f>
         <v>5</v>
       </c>
       <c r="F11" s="2">
@@ -957,7 +960,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" ref="E12:F12" si="17">FIND($D$28,$C12,D12+1)</f>
+        <f t="shared" ref="E12" si="17">FIND($D$28,$C12,D12+1)</f>
         <v>5</v>
       </c>
       <c r="F12" s="2">
@@ -983,55 +986,55 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>14 0 0</v>
+        <v>14 12240 1367 ****</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" ref="E13:F13" si="18">FIND($D$28,$C13,D13+1)</f>
-        <v>5</v>
+        <f t="shared" ref="E13" si="18">FIND($D$28,$C13,D13+1)</f>
+        <v>9</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1367</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="5" t="str">
+        <v>12240</v>
+      </c>
+      <c r="M13" s="5">
         <f t="shared" si="8"/>
-        <v/>
+        <v>-0.61110758086039274</v>
       </c>
       <c r="N13" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>13607</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>13 13192 1183 ****</v>
+        <v>13 31474 1088 *******</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" ref="E14:F14" si="19">FIND($D$28,$C14,D14+1)</f>
+        <f t="shared" ref="E14" si="19">FIND($D$28,$C14,D14+1)</f>
         <v>9</v>
       </c>
       <c r="F14" s="2">
@@ -1040,28 +1043,28 @@
       </c>
       <c r="K14" s="2">
         <f t="shared" si="3"/>
-        <v>1183</v>
+        <v>1088</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="4"/>
-        <v>13192</v>
+        <v>31474</v>
       </c>
       <c r="M14" s="5">
         <f t="shared" si="8"/>
-        <v>-0.63010318528488107</v>
+        <v>-0.22026508113464638</v>
       </c>
       <c r="N14" s="4">
         <f t="shared" si="5"/>
-        <v>14375</v>
+        <v>32562</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" ref="C15" si="20">TRIM(B15)</f>
-        <v>12 35664 956 ********</v>
+        <v>12 40365 851 ********</v>
       </c>
       <c r="D15" s="2">
         <f>FIND($D$28,$C15)</f>
@@ -1077,35 +1080,35 @@
       </c>
       <c r="K15" s="2">
         <f>VALUE(MID($C15,E15+1,F15-E15-1))</f>
-        <v>956</v>
+        <v>851</v>
       </c>
       <c r="L15" s="2">
         <f>VALUE(MID($C15,D15+1,E15-D15-1))</f>
-        <v>35664</v>
+        <v>40365</v>
       </c>
       <c r="M15" s="5">
         <f t="shared" si="8"/>
-        <v>-0.25381316037242385</v>
+        <v>-0.20209927059242128</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" ref="N15" si="21">SUM(K15:L15)</f>
-        <v>36620</v>
+        <v>41216</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" ref="C16:C26" si="22">TRIM(B16)</f>
-        <v>11 47795 7197 ***********</v>
+        <v>11 50589 7207 ***********</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" ref="D16:D26" si="23">FIND($D$28,$C16)</f>
         <v>3</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" ref="E16:F16" si="24">FIND($D$28,$C16,D16+1)</f>
+        <f t="shared" ref="E16" si="24">FIND($D$28,$C16,D16+1)</f>
         <v>9</v>
       </c>
       <c r="F16" s="2">
@@ -1114,35 +1117,35 @@
       </c>
       <c r="K16" s="2">
         <f t="shared" ref="K16:K26" si="25">VALUE(MID($C16,E16+1,F16-E16-1))</f>
-        <v>7197</v>
+        <v>7207</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" ref="L16:L26" si="26">VALUE(MID($C16,D16+1,E16-D16-1))</f>
-        <v>47795</v>
+        <v>50589</v>
       </c>
       <c r="M16" s="5">
         <f t="shared" si="8"/>
-        <v>-0.23051535105372467</v>
+        <v>-0.21580815674846154</v>
       </c>
       <c r="N16" s="4">
         <f t="shared" ref="N16:N26" si="27">SUM(K16:L16)</f>
-        <v>54992</v>
+        <v>57796</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="22"/>
-        <v>10 62113 3982 ************</v>
+        <v>10 64511 4039 *************</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" ref="E17:F17" si="28">FIND($D$28,$C17,D17+1)</f>
+        <f t="shared" ref="E17" si="28">FIND($D$28,$C17,D17+1)</f>
         <v>9</v>
       </c>
       <c r="F17" s="2">
@@ -1151,35 +1154,35 @@
       </c>
       <c r="K17" s="2">
         <f t="shared" si="25"/>
-        <v>3982</v>
+        <v>4039</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="26"/>
-        <v>62113</v>
+        <v>64511</v>
       </c>
       <c r="M17" s="5">
         <f t="shared" si="8"/>
-        <v>1.0153102336825093E-3</v>
+        <v>1.1017427281845515E-2</v>
       </c>
       <c r="N17" s="4">
         <f t="shared" si="27"/>
-        <v>66095</v>
+        <v>68550</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="22"/>
-        <v>9 62050 8738 *************</v>
+        <v>9 63808 8893 *************</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" ref="E18:F18" si="29">FIND($D$28,$C18,D18+1)</f>
+        <f t="shared" ref="E18" si="29">FIND($D$28,$C18,D18+1)</f>
         <v>8</v>
       </c>
       <c r="F18" s="2">
@@ -1188,35 +1191,35 @@
       </c>
       <c r="K18" s="2">
         <f t="shared" si="25"/>
-        <v>8738</v>
+        <v>8893</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="26"/>
-        <v>62050</v>
+        <v>63808</v>
       </c>
       <c r="M18" s="5">
         <f t="shared" si="8"/>
-        <v>-0.24827059835479692</v>
+        <v>-0.24390937529623657</v>
       </c>
       <c r="N18" s="4">
         <f t="shared" si="27"/>
-        <v>70788</v>
+        <v>72701</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="22"/>
-        <v>8 82543 5905 *****************</v>
+        <v>8 84392 5907 *****************</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" ref="E19:F19" si="30">FIND($D$28,$C19,D19+1)</f>
+        <f t="shared" ref="E19" si="30">FIND($D$28,$C19,D19+1)</f>
         <v>8</v>
       </c>
       <c r="F19" s="2">
@@ -1225,35 +1228,35 @@
       </c>
       <c r="K19" s="2">
         <f t="shared" si="25"/>
-        <v>5905</v>
+        <v>5907</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="26"/>
-        <v>82543</v>
+        <v>84392</v>
       </c>
       <c r="M19" s="5">
         <f t="shared" si="8"/>
-        <v>-6.8647251966105105E-2</v>
+        <v>-6.4566545107906492E-2</v>
       </c>
       <c r="N19" s="4">
         <f t="shared" si="27"/>
-        <v>88448</v>
+        <v>90299</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="22"/>
-        <v>7 88627 1848 *****************</v>
+        <v>7 90217 1856 *****************</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" ref="E20:F20" si="31">FIND($D$28,$C20,D20+1)</f>
+        <f t="shared" ref="E20" si="31">FIND($D$28,$C20,D20+1)</f>
         <v>8</v>
       </c>
       <c r="F20" s="2">
@@ -1262,35 +1265,35 @@
       </c>
       <c r="K20" s="2">
         <f t="shared" si="25"/>
-        <v>1848</v>
+        <v>1856</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="26"/>
-        <v>88627</v>
+        <v>90217</v>
       </c>
       <c r="M20" s="5">
         <f t="shared" si="8"/>
-        <v>-0.28152309612983772</v>
+        <v>-0.27982533866577264</v>
       </c>
       <c r="N20" s="4">
         <f t="shared" si="27"/>
-        <v>90475</v>
+        <v>92073</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="22"/>
-        <v>6 123354 1107 ***********************</v>
+        <v>6 125271 1120 ***********************</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" ref="E21:F21" si="32">FIND($D$28,$C21,D21+1)</f>
+        <f t="shared" ref="E21" si="32">FIND($D$28,$C21,D21+1)</f>
         <v>9</v>
       </c>
       <c r="F21" s="2">
@@ -1299,35 +1302,35 @@
       </c>
       <c r="K21" s="2">
         <f t="shared" si="25"/>
-        <v>1107</v>
+        <v>1120</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="26"/>
-        <v>123354</v>
+        <v>125271</v>
       </c>
       <c r="M21" s="5">
         <f t="shared" si="8"/>
-        <v>-1.66764982542289E-2</v>
+        <v>-1.5497905582232407E-2</v>
       </c>
       <c r="N21" s="4">
         <f t="shared" si="27"/>
-        <v>124461</v>
+        <v>126391</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="22"/>
-        <v>5 125446 2182 ***********************</v>
+        <v>5 127243 2209 ***********************</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" ref="E22:F22" si="33">FIND($D$28,$C22,D22+1)</f>
+        <f t="shared" ref="E22" si="33">FIND($D$28,$C22,D22+1)</f>
         <v>9</v>
       </c>
       <c r="F22" s="2">
@@ -1336,35 +1339,35 @@
       </c>
       <c r="K22" s="2">
         <f t="shared" si="25"/>
-        <v>2182</v>
+        <v>2209</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="26"/>
-        <v>125446</v>
+        <v>127243</v>
       </c>
       <c r="M22" s="5">
         <f t="shared" si="8"/>
-        <v>-0.14794161397026362</v>
+        <v>-0.1469762078743958</v>
       </c>
       <c r="N22" s="4">
         <f t="shared" si="27"/>
-        <v>127628</v>
+        <v>129452</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="22"/>
-        <v>4 147227 2507 ***************************</v>
+        <v>4 149167 2556 ***************************</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" ref="E23:F23" si="34">FIND($D$28,$C23,D23+1)</f>
+        <f t="shared" ref="E23" si="34">FIND($D$28,$C23,D23+1)</f>
         <v>9</v>
       </c>
       <c r="F23" s="2">
@@ -1373,35 +1376,35 @@
       </c>
       <c r="K23" s="2">
         <f t="shared" si="25"/>
-        <v>2507</v>
+        <v>2556</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="26"/>
-        <v>147227</v>
+        <v>149167</v>
       </c>
       <c r="M23" s="5">
         <f t="shared" si="8"/>
-        <v>-7.8512370830751466E-2</v>
+        <v>-7.782139655652065E-2</v>
       </c>
       <c r="N23" s="4">
         <f t="shared" si="27"/>
-        <v>149734</v>
+        <v>151723</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="22"/>
-        <v>3 159771 7859 ******************************</v>
+        <v>3 161755 8016 ******************************</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" ref="E24:F24" si="35">FIND($D$28,$C24,D24+1)</f>
+        <f t="shared" ref="E24" si="35">FIND($D$28,$C24,D24+1)</f>
         <v>9</v>
       </c>
       <c r="F24" s="2">
@@ -1410,35 +1413,35 @@
       </c>
       <c r="K24" s="2">
         <f t="shared" si="25"/>
-        <v>7859</v>
+        <v>8016</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="26"/>
-        <v>159771</v>
+        <v>161755</v>
       </c>
       <c r="M24" s="5">
         <f t="shared" si="8"/>
-        <v>-0.14048470828738202</v>
+        <v>-0.13972461401819947</v>
       </c>
       <c r="N24" s="4">
         <f t="shared" si="27"/>
-        <v>167630</v>
+        <v>169771</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="22"/>
-        <v>2 185885 8321 ***********************************</v>
+        <v>2 188027 8497 ***********************************</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" ref="E25:F25" si="36">FIND($D$28,$C25,D25+1)</f>
+        <f t="shared" ref="E25" si="36">FIND($D$28,$C25,D25+1)</f>
         <v>9</v>
       </c>
       <c r="F25" s="2">
@@ -1447,35 +1450,35 @@
       </c>
       <c r="K25" s="2">
         <f t="shared" si="25"/>
-        <v>8321</v>
+        <v>8497</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="26"/>
-        <v>185885</v>
+        <v>188027</v>
       </c>
       <c r="M25" s="5">
         <f t="shared" si="8"/>
-        <v>-0.16303080241160239</v>
+        <v>-0.16273177421940399</v>
       </c>
       <c r="N25" s="4">
         <f t="shared" si="27"/>
-        <v>194206</v>
+        <v>196524</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="22"/>
-        <v>1 222093 9223 *****************************************</v>
+        <v>1 224572 9373 *****************************************</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" ref="E26:F26" si="37">FIND($D$28,$C26,D26+1)</f>
+        <f t="shared" ref="E26" si="37">FIND($D$28,$C26,D26+1)</f>
         <v>9</v>
       </c>
       <c r="F26" s="2">
@@ -1484,15 +1487,15 @@
       </c>
       <c r="K26" s="2">
         <f t="shared" si="25"/>
-        <v>9223</v>
+        <v>9373</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="26"/>
-        <v>222093</v>
+        <v>224572</v>
       </c>
       <c r="N26" s="4">
         <f t="shared" si="27"/>
-        <v>231316</v>
+        <v>233945</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
@@ -1500,7 +1503,7 @@
         <v>8</v>
       </c>
       <c r="J28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K28" t="s">
         <v>9</v>
@@ -1511,189 +1514,189 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C29" t="str">
-        <f>TRIM(B29)</f>
-        <v>13 04:33:46 12069 0 05:14:40 12042 0</v>
+        <f t="shared" ref="C29:C38" si="38">TRIM(B29)</f>
+        <v>14 04:36:22 12478 0 05:12:09 12187 0</v>
       </c>
       <c r="D29" s="2">
-        <f>FIND($D$28,$C29)</f>
+        <f t="shared" ref="D29:D42" si="39">FIND($D$28,$C29)</f>
         <v>3</v>
       </c>
       <c r="E29" s="2">
-        <f>FIND($D$28,$C29,D29+1)</f>
+        <f t="shared" ref="E29:I29" si="40">FIND($D$28,$C29,D29+1)</f>
         <v>12</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" ref="F29:H29" si="38">FIND($D$28,$C29,E29+1)</f>
+        <f t="shared" si="40"/>
         <v>18</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>20</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>29</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" ref="I29" si="39">FIND($D$28,$C29,H29+1)</f>
+        <f t="shared" si="40"/>
         <v>35</v>
       </c>
       <c r="J29" s="2">
-        <f>VALUE(LEFT(C29,D29-1))</f>
-        <v>13</v>
+        <f t="shared" ref="J29:J38" si="41">VALUE(LEFT(C29,D29-1))</f>
+        <v>14</v>
       </c>
       <c r="K29" s="2">
-        <f>VALUE(MID($C29,E29+1,F29-E29-1))</f>
-        <v>12069</v>
+        <f t="shared" ref="K29:K38" si="42">VALUE(MID($C29,E29+1,F29-E29-1))</f>
+        <v>12478</v>
       </c>
       <c r="L29" s="2">
-        <f>VALUE(MID($C29,H29+1,I29-H29-1))</f>
-        <v>12042</v>
+        <f t="shared" ref="L29:L38" si="43">VALUE(MID($C29,H29+1,I29-H29-1))</f>
+        <v>12187</v>
       </c>
       <c r="M29" s="3" cm="1">
         <f t="array" ref="M29">L29/INDEX($L$2:$L$26,26-J29)</f>
-        <v>0.91282595512431774</v>
+        <v>0.99566993464052289</v>
       </c>
       <c r="N29" s="3">
-        <f>L29/$N$26</f>
-        <v>5.205865569178094E-2</v>
+        <f t="shared" ref="N29:N38" si="44">L29/$N$26</f>
+        <v>5.2093440765992004E-2</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" ref="C30" si="40">TRIM(B30)</f>
-        <v>12 07:53:16 17667 0 08:21:01 17372 0</v>
+        <f t="shared" si="38"/>
+        <v>13 04:33:46 12069 0 05:14:40 12042 0</v>
       </c>
       <c r="D30" s="2">
-        <f>FIND($D$28,$C30)</f>
+        <f t="shared" si="39"/>
         <v>3</v>
       </c>
       <c r="E30" s="2">
-        <f>FIND($D$28,$C30,D30+1)</f>
+        <f t="shared" ref="E30:I30" si="45">FIND($D$28,$C30,D30+1)</f>
         <v>12</v>
       </c>
       <c r="F30" s="2">
-        <f>FIND($D$28,$C30,E30+1)</f>
+        <f t="shared" si="45"/>
         <v>18</v>
       </c>
       <c r="G30" s="2">
-        <f>FIND($D$28,$C30,F30+1)</f>
+        <f t="shared" si="45"/>
         <v>20</v>
       </c>
       <c r="H30" s="2">
-        <f>FIND($D$28,$C30,G30+1)</f>
+        <f t="shared" si="45"/>
         <v>29</v>
       </c>
       <c r="I30" s="2">
-        <f>FIND($D$28,$C30,H30+1)</f>
+        <f t="shared" si="45"/>
         <v>35</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" ref="J30:J41" si="41">VALUE(LEFT(C30,D30-1))</f>
-        <v>12</v>
+        <f t="shared" si="41"/>
+        <v>13</v>
       </c>
       <c r="K30" s="2">
-        <f>VALUE(MID($C30,E30+1,F30-E30-1))</f>
-        <v>17667</v>
+        <f t="shared" si="42"/>
+        <v>12069</v>
       </c>
       <c r="L30" s="2">
-        <f>VALUE(MID($C30,H30+1,I30-H30-1))</f>
-        <v>17372</v>
+        <f t="shared" si="43"/>
+        <v>12042</v>
       </c>
       <c r="M30" s="3" cm="1">
         <f t="array" ref="M30">L30/INDEX($L$2:$L$26,26-J30)</f>
-        <v>0.4871018393898609</v>
+        <v>0.38260151235940776</v>
       </c>
       <c r="N30" s="3">
-        <f>L30/$N$26</f>
-        <v>7.5100728008438672E-2</v>
+        <f t="shared" si="44"/>
+        <v>5.1473636965953536E-2</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" ref="C31:C41" si="42">TRIM(B31)</f>
-        <v>11 04:19:44 15555 0 07:37:34 17311 0</v>
+        <f t="shared" si="38"/>
+        <v>12 07:53:16 17667 0 08:21:01 17372 0</v>
       </c>
       <c r="D31" s="2">
-        <f>FIND($D$28,$C31)</f>
+        <f t="shared" si="39"/>
         <v>3</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" ref="E31:E41" si="43">FIND($D$28,$C31,D31+1)</f>
+        <f t="shared" ref="E31:I31" si="46">FIND($D$28,$C31,D31+1)</f>
         <v>12</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" ref="F31:F41" si="44">FIND($D$28,$C31,E31+1)</f>
+        <f t="shared" si="46"/>
         <v>18</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" ref="G31:G41" si="45">FIND($D$28,$C31,F31+1)</f>
+        <f t="shared" si="46"/>
         <v>20</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" ref="H31:H41" si="46">FIND($D$28,$C31,G31+1)</f>
+        <f t="shared" si="46"/>
         <v>29</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" ref="I31:I41" si="47">FIND($D$28,$C31,H31+1)</f>
+        <f t="shared" si="46"/>
         <v>35</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="41"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" ref="K31:K41" si="48">VALUE(MID($C31,E31+1,F31-E31-1))</f>
-        <v>15555</v>
+        <f t="shared" si="42"/>
+        <v>17667</v>
       </c>
       <c r="L31" s="2">
-        <f t="shared" ref="L31:L41" si="49">VALUE(MID($C31,H31+1,I31-H31-1))</f>
-        <v>17311</v>
+        <f t="shared" si="43"/>
+        <v>17372</v>
       </c>
       <c r="M31" s="3" cm="1">
         <f t="array" ref="M31">L31/INDEX($L$2:$L$26,26-J31)</f>
-        <v>0.36219269798096038</v>
+        <v>0.43037284776415213</v>
       </c>
       <c r="N31" s="3">
-        <f t="shared" ref="N31:N41" si="50">L31/$N$26</f>
-        <v>7.4837019488491932E-2</v>
+        <f t="shared" si="44"/>
+        <v>7.4256769753574564E-2</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="38"/>
+        <v>11 04:19:44 15555 0 07:37:34 17311 0</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="39"/>
+        <v>3</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" ref="E32:I32" si="47">FIND($D$28,$C32,D32+1)</f>
         <v>12</v>
       </c>
-      <c r="C32" t="str">
-        <f t="shared" si="42"/>
-        <v>10 14:22:45 44717 0 15:23:52 41184 0</v>
-      </c>
-      <c r="D32" s="2">
-        <f>FIND($D$28,$C32)</f>
-        <v>3</v>
-      </c>
-      <c r="E32" s="2">
-        <f t="shared" si="43"/>
-        <v>12</v>
-      </c>
       <c r="F32" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>18</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>20</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>29</v>
       </c>
       <c r="I32" s="2">
@@ -1702,504 +1705,557 @@
       </c>
       <c r="J32" s="2">
         <f t="shared" si="41"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="48"/>
-        <v>44717</v>
+        <f t="shared" si="42"/>
+        <v>15555</v>
       </c>
       <c r="L32" s="2">
-        <f t="shared" si="49"/>
-        <v>41184</v>
+        <f t="shared" si="43"/>
+        <v>17311</v>
       </c>
       <c r="M32" s="3" cm="1">
         <f t="array" ref="M32">L32/INDEX($L$2:$L$26,26-J32)</f>
-        <v>0.66304960314265937</v>
+        <v>0.34218901342189012</v>
       </c>
       <c r="N32" s="3">
-        <f t="shared" si="50"/>
-        <v>0.17804215877846755</v>
+        <f t="shared" si="44"/>
+        <v>7.399602470666182E-2</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="42"/>
-        <v>9 01:23:04 10443 0 02:43:50 10583 0</v>
+        <f t="shared" si="38"/>
+        <v>10 14:22:45 44717 0 15:23:52 41184 0</v>
       </c>
       <c r="D33" s="2">
-        <f>FIND($D$28,$C33)</f>
-        <v>2</v>
+        <f t="shared" si="39"/>
+        <v>3</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="43"/>
-        <v>11</v>
+        <f t="shared" ref="E33:I33" si="48">FIND($D$28,$C33,D33+1)</f>
+        <v>12</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="44"/>
-        <v>17</v>
+        <f t="shared" si="48"/>
+        <v>18</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="45"/>
-        <v>19</v>
+        <f t="shared" si="48"/>
+        <v>20</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="46"/>
-        <v>28</v>
+        <f t="shared" si="48"/>
+        <v>29</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="47"/>
-        <v>34</v>
+        <f t="shared" si="48"/>
+        <v>35</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="41"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="48"/>
-        <v>10443</v>
+        <f t="shared" si="42"/>
+        <v>44717</v>
       </c>
       <c r="L33" s="2">
-        <f t="shared" si="49"/>
-        <v>10583</v>
+        <f t="shared" si="43"/>
+        <v>41184</v>
       </c>
       <c r="M33" s="3" cm="1">
         <f t="array" ref="M33">L33/INDEX($L$2:$L$26,26-J33)</f>
-        <v>0.1705560032232071</v>
+        <v>0.63840275301886495</v>
       </c>
       <c r="N33" s="3">
-        <f t="shared" si="50"/>
-        <v>4.5751266665513844E-2</v>
+        <f t="shared" si="44"/>
+        <v>0.17604137724678878</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="42"/>
-        <v>8 02:32:31 18353 0 03:04:18 16187 0</v>
+        <f t="shared" si="38"/>
+        <v>9 01:23:04 10443 0 02:43:50 10583 0</v>
       </c>
       <c r="D34" s="2">
-        <f>FIND($D$28,$C34)</f>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="E34:I34" si="49">FIND($D$28,$C34,D34+1)</f>
         <v>11</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>17</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>19</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>28</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>34</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="41"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="48"/>
-        <v>18353</v>
+        <f t="shared" si="42"/>
+        <v>10443</v>
       </c>
       <c r="L34" s="2">
-        <f t="shared" si="49"/>
-        <v>16187</v>
+        <f t="shared" si="43"/>
+        <v>10583</v>
       </c>
       <c r="M34" s="3" cm="1">
         <f t="array" ref="M34">L34/INDEX($L$2:$L$26,26-J34)</f>
-        <v>0.19610384890299601</v>
+        <v>0.16585694583751254</v>
       </c>
       <c r="N34" s="3">
-        <f t="shared" si="50"/>
-        <v>6.9977865776686438E-2</v>
+        <f t="shared" si="44"/>
+        <v>4.5237128384876785E-2</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="42"/>
-        <v>7 04:03:43 19539 0 04:19:31 18794 0</v>
+        <f t="shared" si="38"/>
+        <v>8 02:32:31 18353 0 03:04:18 16187 0</v>
       </c>
       <c r="D35" s="2">
-        <f>FIND($D$28,$C35)</f>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="E35:I35" si="50">FIND($D$28,$C35,D35+1)</f>
         <v>11</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>17</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>19</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>28</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>34</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="41"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="48"/>
-        <v>19539</v>
+        <f t="shared" si="42"/>
+        <v>18353</v>
       </c>
       <c r="L35" s="2">
-        <f t="shared" si="49"/>
-        <v>18794</v>
+        <f t="shared" si="43"/>
+        <v>16187</v>
       </c>
       <c r="M35" s="3" cm="1">
         <f t="array" ref="M35">L35/INDEX($L$2:$L$26,26-J35)</f>
-        <v>0.21205727374276462</v>
+        <v>0.19180728031092995</v>
       </c>
       <c r="N35" s="3">
-        <f t="shared" si="50"/>
-        <v>8.124816268654135E-2</v>
+        <f t="shared" si="44"/>
+        <v>6.9191476629122228E-2</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="38"/>
+        <v>7 04:03:43 19539 0 04:19:31 18794 0</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
-      <c r="C36" t="str">
-        <f t="shared" si="42"/>
-        <v>6 14:26:51 81806 0 14:30:49 80614 0</v>
-      </c>
-      <c r="D36" s="2">
-        <f>FIND($D$28,$C36)</f>
-        <v>2</v>
-      </c>
       <c r="E36" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="E36:I36" si="51">FIND($D$28,$C36,D36+1)</f>
         <v>11</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>17</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>19</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>28</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>34</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="41"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="48"/>
-        <v>81806</v>
+        <f t="shared" si="42"/>
+        <v>19539</v>
       </c>
       <c r="L36" s="2">
-        <f t="shared" si="49"/>
-        <v>80614</v>
+        <f t="shared" si="43"/>
+        <v>18794</v>
       </c>
       <c r="M36" s="3" cm="1">
         <f t="array" ref="M36">L36/INDEX($L$2:$L$26,26-J36)</f>
-        <v>0.65351751868605801</v>
+        <v>0.20831993970094329</v>
       </c>
       <c r="N36" s="3">
-        <f t="shared" si="50"/>
-        <v>0.34850161683584363</v>
+        <f t="shared" si="44"/>
+        <v>8.0335121502917356E-2</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="42"/>
-        <v>5 &gt;24h 98209 0 &gt;24h 96273 0</v>
+        <f t="shared" si="38"/>
+        <v>6 14:26:51 81806 0 14:30:49 80614 0</v>
       </c>
       <c r="D37" s="2">
-        <f>FIND($D$28,$C37)</f>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="43"/>
-        <v>7</v>
+        <f t="shared" ref="E37:I37" si="52">FIND($D$28,$C37,D37+1)</f>
+        <v>11</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="44"/>
-        <v>13</v>
+        <f t="shared" si="52"/>
+        <v>17</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="45"/>
-        <v>15</v>
+        <f t="shared" si="52"/>
+        <v>19</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="46"/>
-        <v>20</v>
+        <f t="shared" si="52"/>
+        <v>28</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="47"/>
-        <v>26</v>
+        <f t="shared" si="52"/>
+        <v>34</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="48"/>
-        <v>98209</v>
+        <f t="shared" si="42"/>
+        <v>81806</v>
       </c>
       <c r="L37" s="2">
-        <f t="shared" si="49"/>
-        <v>96273</v>
+        <f t="shared" si="43"/>
+        <v>80614</v>
       </c>
       <c r="M37" s="3" cm="1">
         <f t="array" ref="M37">L37/INDEX($L$2:$L$26,26-J37)</f>
-        <v>0.76744575355132882</v>
+        <v>0.64351685545736848</v>
       </c>
       <c r="N37" s="3">
-        <f t="shared" si="50"/>
-        <v>0.4161968908333189</v>
+        <f t="shared" si="44"/>
+        <v>0.34458526576759496</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="42"/>
-        <v>4 &gt;24h 121311 0 &gt;24h 119324 0</v>
+        <f t="shared" si="38"/>
+        <v>5 &gt;24h 98209 0 &gt;24h 96273 0</v>
       </c>
       <c r="D38" s="2">
-        <f>FIND($D$28,$C38)</f>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="E38:I38" si="53">FIND($D$28,$C38,D38+1)</f>
         <v>7</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="44"/>
-        <v>14</v>
+        <f t="shared" si="53"/>
+        <v>13</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="45"/>
-        <v>16</v>
+        <f t="shared" si="53"/>
+        <v>15</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="46"/>
-        <v>21</v>
+        <f t="shared" si="53"/>
+        <v>20</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="47"/>
-        <v>28</v>
+        <f t="shared" si="53"/>
+        <v>26</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="41"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="48"/>
-        <v>121311</v>
+        <f t="shared" si="42"/>
+        <v>98209</v>
       </c>
       <c r="L38" s="2">
-        <f t="shared" si="49"/>
-        <v>119324</v>
+        <f t="shared" si="43"/>
+        <v>96273</v>
       </c>
       <c r="M38" s="3" cm="1">
         <f t="array" ref="M38">L38/INDEX($L$2:$L$26,26-J38)</f>
-        <v>0.81047633925842411</v>
+        <v>0.75660743616544723</v>
       </c>
       <c r="N38" s="3">
-        <f t="shared" si="50"/>
-        <v>0.51584844973974997</v>
+        <f t="shared" si="44"/>
+        <v>0.41151980166278401</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="42"/>
-        <v>3 &gt;24h 138137 0 &gt;24h 131569 0</v>
+        <f t="shared" ref="C31:C39" si="54">TRIM(B39)</f>
+        <v>4 &gt;24h 121311 0 &gt;24h 119324 0</v>
       </c>
       <c r="D39" s="2">
-        <f>FIND($D$28,$C39)</f>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="E39:I39" si="55">FIND($D$28,$C39,D39+1)</f>
         <v>7</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>16</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>21</v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>28</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="41"/>
-        <v>3</v>
+        <f t="shared" ref="J31:J39" si="56">VALUE(LEFT(C39,D39-1))</f>
+        <v>4</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" si="48"/>
-        <v>138137</v>
+        <f t="shared" ref="K31:K39" si="57">VALUE(MID($C39,E39+1,F39-E39-1))</f>
+        <v>121311</v>
       </c>
       <c r="L39" s="2">
-        <f t="shared" si="49"/>
-        <v>131569</v>
+        <f t="shared" ref="L31:L39" si="58">VALUE(MID($C39,H39+1,I39-H39-1))</f>
+        <v>119324</v>
       </c>
       <c r="M39" s="3" cm="1">
         <f t="array" ref="M39">L39/INDEX($L$2:$L$26,26-J39)</f>
-        <v>0.8234848627097533</v>
+        <v>0.79993564260191596</v>
       </c>
       <c r="N39" s="3">
-        <f t="shared" si="50"/>
-        <v>0.56878469280118971</v>
+        <f t="shared" ref="N31:N39" si="59">L39/$N$26</f>
+        <v>0.51005150783303765</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="42"/>
-        <v>2 &gt;24h 164874 0 &gt;24h 157951 0</v>
+        <f t="shared" ref="C32:C42" si="60">TRIM(B40)</f>
+        <v>3 &gt;24h 138137 0 &gt;24h 131569 0</v>
       </c>
       <c r="D40" s="2">
-        <f>FIND($D$28,$C40)</f>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="E32:E42" si="61">FIND($D$28,$C40,D40+1)</f>
         <v>7</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="F32:F42" si="62">FIND($D$28,$C40,E40+1)</f>
         <v>14</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="G32:G42" si="63">FIND($D$28,$C40,F40+1)</f>
         <v>16</v>
       </c>
       <c r="H40" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="H32:H42" si="64">FIND($D$28,$C40,G40+1)</f>
         <v>21</v>
       </c>
       <c r="I40" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="I32:I42" si="65">FIND($D$28,$C40,H40+1)</f>
         <v>28</v>
       </c>
       <c r="J40" s="2">
-        <f t="shared" si="41"/>
-        <v>2</v>
+        <f t="shared" ref="J30:J42" si="66">VALUE(LEFT(C40,D40-1))</f>
+        <v>3</v>
       </c>
       <c r="K40" s="2">
-        <f t="shared" si="48"/>
-        <v>164874</v>
+        <f t="shared" ref="K32:K42" si="67">VALUE(MID($C40,E40+1,F40-E40-1))</f>
+        <v>138137</v>
       </c>
       <c r="L40" s="2">
-        <f t="shared" si="49"/>
-        <v>157951</v>
+        <f t="shared" ref="L32:L42" si="68">VALUE(MID($C40,H40+1,I40-H40-1))</f>
+        <v>131569</v>
       </c>
       <c r="M40" s="3" cm="1">
         <f t="array" ref="M40">L40/INDEX($L$2:$L$26,26-J40)</f>
-        <v>0.84972429190090648</v>
+        <v>0.81338443943000216</v>
       </c>
       <c r="N40" s="3">
-        <f t="shared" si="50"/>
-        <v>0.68283646613290905</v>
+        <f t="shared" ref="N32:N42" si="69">L40/$N$26</f>
+        <v>0.56239287011904504</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="60"/>
+        <v>2 &gt;24h 164874 0 &gt;24h 157951 0</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="61"/>
         <v>7</v>
       </c>
-      <c r="C41" t="str">
-        <f t="shared" si="42"/>
-        <v>1 &gt;24h 199524 0 &gt;24h 191817 0</v>
-      </c>
-      <c r="D41" s="2">
-        <f>FIND($D$28,$C41)</f>
+      <c r="F41" s="2">
+        <f t="shared" si="62"/>
+        <v>14</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="63"/>
+        <v>16</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="64"/>
+        <v>21</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" si="65"/>
+        <v>28</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
-      <c r="E41" s="2">
-        <f t="shared" si="43"/>
-        <v>7</v>
-      </c>
-      <c r="F41" s="2">
-        <f t="shared" si="44"/>
-        <v>14</v>
-      </c>
-      <c r="G41" s="2">
-        <f t="shared" si="45"/>
-        <v>16</v>
-      </c>
-      <c r="H41" s="2">
-        <f t="shared" si="46"/>
-        <v>21</v>
-      </c>
-      <c r="I41" s="2">
-        <f t="shared" si="47"/>
-        <v>28</v>
-      </c>
-      <c r="J41" s="2">
-        <f t="shared" si="41"/>
-        <v>1</v>
-      </c>
       <c r="K41" s="2">
-        <f t="shared" si="48"/>
-        <v>199524</v>
+        <f t="shared" si="67"/>
+        <v>164874</v>
       </c>
       <c r="L41" s="2">
-        <f t="shared" si="49"/>
-        <v>191817</v>
+        <f t="shared" si="68"/>
+        <v>157951</v>
       </c>
       <c r="M41" s="3" cm="1">
         <f t="array" ref="M41">L41/INDEX($L$2:$L$26,26-J41)</f>
-        <v>0.86367872918101873</v>
+        <v>0.84004424896424446</v>
       </c>
       <c r="N41" s="3">
-        <f t="shared" si="50"/>
-        <v>0.82924224869874974</v>
+        <f t="shared" si="69"/>
+        <v>0.67516296565432043</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="60"/>
+        <v>1 &gt;24h 199524 0 &gt;24h 191817 0</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="61"/>
+        <v>7</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="62"/>
+        <v>14</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="63"/>
+        <v>16</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="64"/>
+        <v>21</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="65"/>
+        <v>28</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" si="67"/>
+        <v>199524</v>
+      </c>
+      <c r="L42" s="2">
+        <f t="shared" si="68"/>
+        <v>191817</v>
+      </c>
+      <c r="M42" s="3" cm="1">
+        <f t="array" ref="M42">L42/INDEX($L$2:$L$26,26-J42)</f>
+        <v>0.85414477316851611</v>
+      </c>
+      <c r="N42" s="3">
+        <f t="shared" si="69"/>
+        <v>0.8199234862895125</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N29:N41">
+  <conditionalFormatting sqref="N29:N42">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2209,7 +2265,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M29:M41">
+  <conditionalFormatting sqref="M29:M42">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>

--- a/Advent of Code-Tracking-2022.xlsx
+++ b/Advent of Code-Tracking-2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aforgiel\source\repos\AdventOfCode2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465E33D2-1017-40F5-9118-8488007CCAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C39628-E0C7-4F6F-A452-CC9D46A4B3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{DFEEB8B9-5279-44FF-B8AD-25775064E720}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{DFEEB8B9-5279-44FF-B8AD-25775064E720}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracking" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t xml:space="preserve">  8   02:32:31   18353      0   03:04:18   16187      0</t>
   </si>
@@ -138,55 +138,58 @@
     <t xml:space="preserve">16       0     0  </t>
   </si>
   <si>
-    <t xml:space="preserve">15       0     0  </t>
-  </si>
-  <si>
     <t>Index</t>
   </si>
   <si>
     <t xml:space="preserve"> 14   04:36:22   12478      0   05:12:09   12187      0</t>
   </si>
   <si>
-    <t>14   12240  1367  ****</t>
-  </si>
-  <si>
-    <t>13   31474  1088  *******</t>
-  </si>
-  <si>
-    <t>12   40365   851  ********</t>
-  </si>
-  <si>
-    <t>11   50589  7207  ***********</t>
-  </si>
-  <si>
-    <t>10   64511  4039  *************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9   63808  8893  *************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8   84392  5907  *****************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7   90217  1856  *****************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6  125271  1120  ***********************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5  127243  2209  ***********************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4  149167  2556  ***************************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3  161755  8016  ******************************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2  188027  8497  ***********************************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1  224572  9373  *****************************************</t>
+    <t xml:space="preserve"> 15   06:33:24   14233      0   07:46:22    9889      0</t>
+  </si>
+  <si>
+    <t>15    9981  5807  ***</t>
+  </si>
+  <si>
+    <t>14   30942   969  *******</t>
+  </si>
+  <si>
+    <t>13   35604   954  ********</t>
+  </si>
+  <si>
+    <t>12   42874   813  *********</t>
+  </si>
+  <si>
+    <t>11   52547  7257  ***********</t>
+  </si>
+  <si>
+    <t>10   66353  4130  *************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9   65351  9030  **************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8   86036  5994  *****************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7   91670  1898  *****************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6  127157  1118  ***********************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5  129011  2236  ***********************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4  151028  2627  ***************************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3  163757  8124  ******************************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2  190069  8641  ***********************************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1  226990  9594  *****************************************</t>
   </si>
 </sst>
 </file>
@@ -559,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7C4CDB-368A-4162-8945-6456BB339A8F}">
-  <dimension ref="B2:N42"/>
+  <dimension ref="B2:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P54" sqref="P54"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -949,11 +952,11 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
-        <v>15 0 0</v>
+        <v>15 9981 5807 ***</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
@@ -961,36 +964,36 @@
       </c>
       <c r="E12" s="2">
         <f t="shared" ref="E12" si="17">FIND($D$28,$C12,D12+1)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5807</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="5" t="str">
+        <v>9981</v>
+      </c>
+      <c r="M12" s="5">
         <f t="shared" si="8"/>
-        <v/>
+        <v>-0.6774287376381618</v>
       </c>
       <c r="N12" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>15788</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>14 12240 1367 ****</v>
+        <v>14 30942 969 *******</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
@@ -1002,32 +1005,32 @@
       </c>
       <c r="F13" s="2">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="3"/>
-        <v>1367</v>
+        <v>969</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="4"/>
-        <v>12240</v>
+        <v>30942</v>
       </c>
       <c r="M13" s="5">
         <f t="shared" si="8"/>
-        <v>-0.61110758086039274</v>
+        <v>-0.13094034378159758</v>
       </c>
       <c r="N13" s="4">
         <f t="shared" si="5"/>
-        <v>13607</v>
+        <v>31911</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>13 31474 1088 *******</v>
+        <v>13 35604 954 ********</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
@@ -1039,32 +1042,32 @@
       </c>
       <c r="F14" s="2">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="3"/>
-        <v>1088</v>
+        <v>954</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="4"/>
-        <v>31474</v>
+        <v>35604</v>
       </c>
       <c r="M14" s="5">
         <f t="shared" si="8"/>
-        <v>-0.22026508113464638</v>
+        <v>-0.16956663712273168</v>
       </c>
       <c r="N14" s="4">
         <f t="shared" si="5"/>
-        <v>32562</v>
+        <v>36558</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" ref="C15" si="20">TRIM(B15)</f>
-        <v>12 40365 851 ********</v>
+        <v>12 42874 813 *********</v>
       </c>
       <c r="D15" s="2">
         <f>FIND($D$28,$C15)</f>
@@ -1080,28 +1083,28 @@
       </c>
       <c r="K15" s="2">
         <f>VALUE(MID($C15,E15+1,F15-E15-1))</f>
-        <v>851</v>
+        <v>813</v>
       </c>
       <c r="L15" s="2">
         <f>VALUE(MID($C15,D15+1,E15-D15-1))</f>
-        <v>40365</v>
+        <v>42874</v>
       </c>
       <c r="M15" s="5">
         <f t="shared" si="8"/>
-        <v>-0.20209927059242128</v>
+        <v>-0.18408282109349727</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" ref="N15" si="21">SUM(K15:L15)</f>
-        <v>41216</v>
+        <v>43687</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" ref="C16:C26" si="22">TRIM(B16)</f>
-        <v>11 50589 7207 ***********</v>
+        <v>11 52547 7257 ***********</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" ref="D16:D26" si="23">FIND($D$28,$C16)</f>
@@ -1117,28 +1120,28 @@
       </c>
       <c r="K16" s="2">
         <f t="shared" ref="K16:K26" si="25">VALUE(MID($C16,E16+1,F16-E16-1))</f>
-        <v>7207</v>
+        <v>7257</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" ref="L16:L26" si="26">VALUE(MID($C16,D16+1,E16-D16-1))</f>
-        <v>50589</v>
+        <v>52547</v>
       </c>
       <c r="M16" s="5">
         <f t="shared" si="8"/>
-        <v>-0.21580815674846154</v>
+        <v>-0.20806896447786838</v>
       </c>
       <c r="N16" s="4">
         <f t="shared" ref="N16:N26" si="27">SUM(K16:L16)</f>
-        <v>57796</v>
+        <v>59804</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="22"/>
-        <v>10 64511 4039 *************</v>
+        <v>10 66353 4130 *************</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="23"/>
@@ -1154,28 +1157,28 @@
       </c>
       <c r="K17" s="2">
         <f t="shared" si="25"/>
-        <v>4039</v>
+        <v>4130</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="26"/>
-        <v>64511</v>
+        <v>66353</v>
       </c>
       <c r="M17" s="5">
         <f t="shared" si="8"/>
-        <v>1.1017427281845515E-2</v>
+        <v>1.5332588636746136E-2</v>
       </c>
       <c r="N17" s="4">
         <f t="shared" si="27"/>
-        <v>68550</v>
+        <v>70483</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="22"/>
-        <v>9 63808 8893 *************</v>
+        <v>9 65351 9030 **************</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="23"/>
@@ -1191,28 +1194,28 @@
       </c>
       <c r="K18" s="2">
         <f t="shared" si="25"/>
-        <v>8893</v>
+        <v>9030</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="26"/>
-        <v>63808</v>
+        <v>65351</v>
       </c>
       <c r="M18" s="5">
         <f t="shared" si="8"/>
-        <v>-0.24390937529623657</v>
+        <v>-0.24042261378957641</v>
       </c>
       <c r="N18" s="4">
         <f t="shared" si="27"/>
-        <v>72701</v>
+        <v>74381</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="22"/>
-        <v>8 84392 5907 *****************</v>
+        <v>8 86036 5994 *****************</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="23"/>
@@ -1228,28 +1231,28 @@
       </c>
       <c r="K19" s="2">
         <f t="shared" si="25"/>
-        <v>5907</v>
+        <v>5994</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="26"/>
-        <v>84392</v>
+        <v>86036</v>
       </c>
       <c r="M19" s="5">
         <f t="shared" si="8"/>
-        <v>-6.4566545107906492E-2</v>
+        <v>-6.1459583287880482E-2</v>
       </c>
       <c r="N19" s="4">
         <f t="shared" si="27"/>
-        <v>90299</v>
+        <v>92030</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="22"/>
-        <v>7 90217 1856 *****************</v>
+        <v>7 91670 1898 *****************</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="23"/>
@@ -1265,28 +1268,28 @@
       </c>
       <c r="K20" s="2">
         <f t="shared" si="25"/>
-        <v>1856</v>
+        <v>1898</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="26"/>
-        <v>90217</v>
+        <v>91670</v>
       </c>
       <c r="M20" s="5">
         <f t="shared" si="8"/>
-        <v>-0.27982533866577264</v>
+        <v>-0.27908019220333913</v>
       </c>
       <c r="N20" s="4">
         <f t="shared" si="27"/>
-        <v>92073</v>
+        <v>93568</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="22"/>
-        <v>6 125271 1120 ***********************</v>
+        <v>6 127157 1118 ***********************</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="23"/>
@@ -1302,28 +1305,28 @@
       </c>
       <c r="K21" s="2">
         <f t="shared" si="25"/>
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="26"/>
-        <v>125271</v>
+        <v>127157</v>
       </c>
       <c r="M21" s="5">
         <f t="shared" si="8"/>
-        <v>-1.5497905582232407E-2</v>
+        <v>-1.4370867600437154E-2</v>
       </c>
       <c r="N21" s="4">
         <f t="shared" si="27"/>
-        <v>126391</v>
+        <v>128275</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="22"/>
-        <v>5 127243 2209 ***********************</v>
+        <v>5 129011 2236 ***********************</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="23"/>
@@ -1339,28 +1342,28 @@
       </c>
       <c r="K22" s="2">
         <f t="shared" si="25"/>
-        <v>2209</v>
+        <v>2236</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="26"/>
-        <v>127243</v>
+        <v>129011</v>
       </c>
       <c r="M22" s="5">
         <f t="shared" si="8"/>
-        <v>-0.1469762078743958</v>
+        <v>-0.14578091479725619</v>
       </c>
       <c r="N22" s="4">
         <f t="shared" si="27"/>
-        <v>129452</v>
+        <v>131247</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="22"/>
-        <v>4 149167 2556 ***************************</v>
+        <v>4 151028 2627 ***************************</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="23"/>
@@ -1376,28 +1379,28 @@
       </c>
       <c r="K23" s="2">
         <f t="shared" si="25"/>
-        <v>2556</v>
+        <v>2627</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="26"/>
-        <v>149167</v>
+        <v>151028</v>
       </c>
       <c r="M23" s="5">
         <f t="shared" si="8"/>
-        <v>-7.782139655652065E-2</v>
+        <v>-7.7731028291920357E-2</v>
       </c>
       <c r="N23" s="4">
         <f t="shared" si="27"/>
-        <v>151723</v>
+        <v>153655</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="22"/>
-        <v>3 161755 8016 ******************************</v>
+        <v>3 163757 8124 ******************************</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="23"/>
@@ -1413,28 +1416,28 @@
       </c>
       <c r="K24" s="2">
         <f t="shared" si="25"/>
-        <v>8016</v>
+        <v>8124</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="26"/>
-        <v>161755</v>
+        <v>163757</v>
       </c>
       <c r="M24" s="5">
         <f t="shared" si="8"/>
-        <v>-0.13972461401819947</v>
+        <v>-0.13843393714914054</v>
       </c>
       <c r="N24" s="4">
         <f t="shared" si="27"/>
-        <v>169771</v>
+        <v>171881</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="22"/>
-        <v>2 188027 8497 ***********************************</v>
+        <v>2 190069 8641 ***********************************</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="23"/>
@@ -1450,28 +1453,28 @@
       </c>
       <c r="K25" s="2">
         <f t="shared" si="25"/>
-        <v>8497</v>
+        <v>8641</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="26"/>
-        <v>188027</v>
+        <v>190069</v>
       </c>
       <c r="M25" s="5">
         <f t="shared" si="8"/>
-        <v>-0.16273177421940399</v>
+        <v>-0.1626547424996696</v>
       </c>
       <c r="N25" s="4">
         <f t="shared" si="27"/>
-        <v>196524</v>
+        <v>198710</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="22"/>
-        <v>1 224572 9373 *****************************************</v>
+        <v>1 226990 9594 *****************************************</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="23"/>
@@ -1487,15 +1490,15 @@
       </c>
       <c r="K26" s="2">
         <f t="shared" si="25"/>
-        <v>9373</v>
+        <v>9594</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="26"/>
-        <v>224572</v>
+        <v>226990</v>
       </c>
       <c r="N26" s="4">
         <f t="shared" si="27"/>
-        <v>233945</v>
+        <v>236584</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
@@ -1503,7 +1506,7 @@
         <v>8</v>
       </c>
       <c r="J28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K28" t="s">
         <v>9</v>
@@ -1517,11 +1520,11 @@
         <v>28</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" ref="C29:C38" si="38">TRIM(B29)</f>
-        <v>14 04:36:22 12478 0 05:12:09 12187 0</v>
+        <f t="shared" ref="C29:C39" si="38">TRIM(B29)</f>
+        <v>15 06:33:24 14233 0 07:46:22 9889 0</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" ref="D29:D42" si="39">FIND($D$28,$C29)</f>
+        <f t="shared" ref="D29:D43" si="39">FIND($D$28,$C29)</f>
         <v>3</v>
       </c>
       <c r="E29" s="2">
@@ -1542,149 +1545,149 @@
       </c>
       <c r="I29" s="2">
         <f t="shared" si="40"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" ref="J29:J38" si="41">VALUE(LEFT(C29,D29-1))</f>
-        <v>14</v>
+        <f t="shared" ref="J29:J39" si="41">VALUE(LEFT(C29,D29-1))</f>
+        <v>15</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" ref="K29:K38" si="42">VALUE(MID($C29,E29+1,F29-E29-1))</f>
-        <v>12478</v>
+        <f t="shared" ref="K29:K39" si="42">VALUE(MID($C29,E29+1,F29-E29-1))</f>
+        <v>14233</v>
       </c>
       <c r="L29" s="2">
-        <f t="shared" ref="L29:L38" si="43">VALUE(MID($C29,H29+1,I29-H29-1))</f>
-        <v>12187</v>
+        <f t="shared" ref="L29:L39" si="43">VALUE(MID($C29,H29+1,I29-H29-1))</f>
+        <v>9889</v>
       </c>
       <c r="M29" s="3" cm="1">
         <f t="array" ref="M29">L29/INDEX($L$2:$L$26,26-J29)</f>
-        <v>0.99566993464052289</v>
+        <v>0.99078248672477709</v>
       </c>
       <c r="N29" s="3">
-        <f t="shared" ref="N29:N38" si="44">L29/$N$26</f>
-        <v>5.2093440765992004E-2</v>
+        <f t="shared" ref="N29:N39" si="44">L29/$N$26</f>
+        <v>4.1799107293815307E-2</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="38"/>
-        <v>13 04:33:46 12069 0 05:14:40 12042 0</v>
+        <f t="shared" ref="C30:C43" si="45">TRIM(B30)</f>
+        <v>14 04:36:22 12478 0 05:12:09 12187 0</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="39"/>
         <v>3</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" ref="E30:I30" si="45">FIND($D$28,$C30,D30+1)</f>
+        <f t="shared" ref="E30:E43" si="46">FIND($D$28,$C30,D30+1)</f>
         <v>12</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="F30:F43" si="47">FIND($D$28,$C30,E30+1)</f>
         <v>18</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="G30:G43" si="48">FIND($D$28,$C30,F30+1)</f>
         <v>20</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="H30:H43" si="49">FIND($D$28,$C30,G30+1)</f>
         <v>29</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="I30:I43" si="50">FIND($D$28,$C30,H30+1)</f>
         <v>35</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="41"/>
-        <v>13</v>
+        <f t="shared" ref="J30:J43" si="51">VALUE(LEFT(C30,D30-1))</f>
+        <v>14</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="42"/>
-        <v>12069</v>
+        <f t="shared" ref="K30:K43" si="52">VALUE(MID($C30,E30+1,F30-E30-1))</f>
+        <v>12478</v>
       </c>
       <c r="L30" s="2">
-        <f t="shared" si="43"/>
-        <v>12042</v>
+        <f t="shared" ref="L30:L43" si="53">VALUE(MID($C30,H30+1,I30-H30-1))</f>
+        <v>12187</v>
       </c>
       <c r="M30" s="3" cm="1">
         <f t="array" ref="M30">L30/INDEX($L$2:$L$26,26-J30)</f>
-        <v>0.38260151235940776</v>
+        <v>0.39386594273156228</v>
       </c>
       <c r="N30" s="3">
-        <f t="shared" si="44"/>
-        <v>5.1473636965953536E-2</v>
+        <f t="shared" ref="N30:N43" si="54">L30/$N$26</f>
+        <v>5.151235924661008E-2</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="38"/>
-        <v>12 07:53:16 17667 0 08:21:01 17372 0</v>
+        <f t="shared" si="45"/>
+        <v>13 04:33:46 12069 0 05:14:40 12042 0</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="39"/>
         <v>3</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" ref="E31:I31" si="46">FIND($D$28,$C31,D31+1)</f>
+        <f t="shared" si="46"/>
         <v>12</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>18</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>20</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>29</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>35</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="41"/>
-        <v>12</v>
+        <f t="shared" si="51"/>
+        <v>13</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="42"/>
-        <v>17667</v>
+        <f t="shared" si="52"/>
+        <v>12069</v>
       </c>
       <c r="L31" s="2">
-        <f t="shared" si="43"/>
-        <v>17372</v>
+        <f t="shared" si="53"/>
+        <v>12042</v>
       </c>
       <c r="M31" s="3" cm="1">
         <f t="array" ref="M31">L31/INDEX($L$2:$L$26,26-J31)</f>
-        <v>0.43037284776415213</v>
+        <v>0.33822042467138524</v>
       </c>
       <c r="N31" s="3">
-        <f t="shared" si="44"/>
-        <v>7.4256769753574564E-2</v>
+        <f t="shared" si="54"/>
+        <v>5.0899469110337131E-2</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="38"/>
-        <v>11 04:19:44 15555 0 07:37:34 17311 0</v>
+        <f t="shared" si="45"/>
+        <v>12 07:53:16 17667 0 08:21:01 17372 0</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="39"/>
         <v>3</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" ref="E32:I32" si="47">FIND($D$28,$C32,D32+1)</f>
+        <f t="shared" si="46"/>
         <v>12</v>
       </c>
       <c r="F32" s="2">
@@ -1692,56 +1695,56 @@
         <v>18</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>20</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>29</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>35</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="41"/>
-        <v>11</v>
+        <f t="shared" si="51"/>
+        <v>12</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="42"/>
-        <v>15555</v>
+        <f t="shared" si="52"/>
+        <v>17667</v>
       </c>
       <c r="L32" s="2">
-        <f t="shared" si="43"/>
-        <v>17311</v>
+        <f t="shared" si="53"/>
+        <v>17372</v>
       </c>
       <c r="M32" s="3" cm="1">
         <f t="array" ref="M32">L32/INDEX($L$2:$L$26,26-J32)</f>
-        <v>0.34218901342189012</v>
+        <v>0.40518729299808742</v>
       </c>
       <c r="N32" s="3">
-        <f t="shared" si="44"/>
-        <v>7.399602470666182E-2</v>
+        <f t="shared" si="54"/>
+        <v>7.3428465154025638E-2</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="38"/>
-        <v>10 14:22:45 44717 0 15:23:52 41184 0</v>
+        <f t="shared" si="45"/>
+        <v>11 04:19:44 15555 0 07:37:34 17311 0</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="39"/>
         <v>3</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" ref="E33:I33" si="48">FIND($D$28,$C33,D33+1)</f>
+        <f t="shared" si="46"/>
         <v>12</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>18</v>
       </c>
       <c r="G33" s="2">
@@ -1749,113 +1752,113 @@
         <v>20</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>29</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>35</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="41"/>
-        <v>10</v>
+        <f t="shared" si="51"/>
+        <v>11</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="42"/>
-        <v>44717</v>
+        <f t="shared" si="52"/>
+        <v>15555</v>
       </c>
       <c r="L33" s="2">
-        <f t="shared" si="43"/>
-        <v>41184</v>
+        <f t="shared" si="53"/>
+        <v>17311</v>
       </c>
       <c r="M33" s="3" cm="1">
         <f t="array" ref="M33">L33/INDEX($L$2:$L$26,26-J33)</f>
-        <v>0.63840275301886495</v>
+        <v>0.32943840752088605</v>
       </c>
       <c r="N33" s="3">
-        <f t="shared" si="44"/>
-        <v>0.17604137724678878</v>
+        <f t="shared" si="54"/>
+        <v>7.3170628613938388E-2</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="38"/>
-        <v>9 01:23:04 10443 0 02:43:50 10583 0</v>
+        <f t="shared" si="45"/>
+        <v>10 14:22:45 44717 0 15:23:52 41184 0</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="39"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" ref="E34:I34" si="49">FIND($D$28,$C34,D34+1)</f>
-        <v>11</v>
+        <f t="shared" si="46"/>
+        <v>12</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="49"/>
-        <v>17</v>
+        <f t="shared" si="47"/>
+        <v>18</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="49"/>
-        <v>19</v>
+        <f t="shared" si="48"/>
+        <v>20</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" si="49"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="49"/>
-        <v>34</v>
+        <f t="shared" si="50"/>
+        <v>35</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="41"/>
-        <v>9</v>
+        <f t="shared" si="51"/>
+        <v>10</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="42"/>
-        <v>10443</v>
+        <f t="shared" si="52"/>
+        <v>44717</v>
       </c>
       <c r="L34" s="2">
-        <f t="shared" si="43"/>
-        <v>10583</v>
+        <f t="shared" si="53"/>
+        <v>41184</v>
       </c>
       <c r="M34" s="3" cm="1">
         <f t="array" ref="M34">L34/INDEX($L$2:$L$26,26-J34)</f>
-        <v>0.16585694583751254</v>
+        <v>0.62068030081533621</v>
       </c>
       <c r="N34" s="3">
-        <f t="shared" si="44"/>
-        <v>4.5237128384876785E-2</v>
+        <f t="shared" si="54"/>
+        <v>0.17407770601562236</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="38"/>
-        <v>8 02:32:31 18353 0 03:04:18 16187 0</v>
+        <f t="shared" si="45"/>
+        <v>9 01:23:04 10443 0 02:43:50 10583 0</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" ref="E35:I35" si="50">FIND($D$28,$C35,D35+1)</f>
+        <f t="shared" si="46"/>
         <v>11</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>17</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>19</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>28</v>
       </c>
       <c r="I35" s="2">
@@ -1863,399 +1866,452 @@
         <v>34</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="41"/>
-        <v>8</v>
+        <f t="shared" si="51"/>
+        <v>9</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="42"/>
-        <v>18353</v>
+        <f t="shared" si="52"/>
+        <v>10443</v>
       </c>
       <c r="L35" s="2">
-        <f t="shared" si="43"/>
-        <v>16187</v>
+        <f t="shared" si="53"/>
+        <v>10583</v>
       </c>
       <c r="M35" s="3" cm="1">
         <f t="array" ref="M35">L35/INDEX($L$2:$L$26,26-J35)</f>
-        <v>0.19180728031092995</v>
+        <v>0.16194090373521447</v>
       </c>
       <c r="N35" s="3">
-        <f t="shared" si="44"/>
-        <v>6.9191476629122228E-2</v>
+        <f t="shared" si="54"/>
+        <v>4.4732526290873431E-2</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="38"/>
-        <v>7 04:03:43 19539 0 04:19:31 18794 0</v>
+        <f t="shared" si="45"/>
+        <v>8 02:32:31 18353 0 03:04:18 16187 0</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" ref="E36:I36" si="51">FIND($D$28,$C36,D36+1)</f>
+        <f t="shared" si="46"/>
         <v>11</v>
       </c>
       <c r="F36" s="2">
+        <f t="shared" si="47"/>
+        <v>17</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="48"/>
+        <v>19</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="49"/>
+        <v>28</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="50"/>
+        <v>34</v>
+      </c>
+      <c r="J36" s="2">
         <f t="shared" si="51"/>
-        <v>17</v>
-      </c>
-      <c r="G36" s="2">
-        <f t="shared" si="51"/>
-        <v>19</v>
-      </c>
-      <c r="H36" s="2">
-        <f t="shared" si="51"/>
-        <v>28</v>
-      </c>
-      <c r="I36" s="2">
-        <f t="shared" si="51"/>
-        <v>34</v>
-      </c>
-      <c r="J36" s="2">
-        <f t="shared" si="41"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="42"/>
-        <v>19539</v>
+        <f t="shared" si="52"/>
+        <v>18353</v>
       </c>
       <c r="L36" s="2">
-        <f t="shared" si="43"/>
-        <v>18794</v>
+        <f t="shared" si="53"/>
+        <v>16187</v>
       </c>
       <c r="M36" s="3" cm="1">
         <f t="array" ref="M36">L36/INDEX($L$2:$L$26,26-J36)</f>
-        <v>0.20831993970094329</v>
+        <v>0.18814217304384212</v>
       </c>
       <c r="N36" s="3">
-        <f t="shared" si="44"/>
-        <v>8.0335121502917356E-2</v>
+        <f t="shared" si="54"/>
+        <v>6.8419673350691504E-2</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="38"/>
-        <v>6 14:26:51 81806 0 14:30:49 80614 0</v>
+        <f t="shared" si="45"/>
+        <v>7 04:03:43 19539 0 04:19:31 18794 0</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" ref="E37:I37" si="52">FIND($D$28,$C37,D37+1)</f>
+        <f t="shared" si="46"/>
         <v>11</v>
       </c>
       <c r="F37" s="2">
+        <f t="shared" si="47"/>
+        <v>17</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="48"/>
+        <v>19</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="49"/>
+        <v>28</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="50"/>
+        <v>34</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="51"/>
+        <v>7</v>
+      </c>
+      <c r="K37" s="2">
         <f t="shared" si="52"/>
-        <v>17</v>
-      </c>
-      <c r="G37" s="2">
-        <f t="shared" si="52"/>
-        <v>19</v>
-      </c>
-      <c r="H37" s="2">
-        <f t="shared" si="52"/>
-        <v>28</v>
-      </c>
-      <c r="I37" s="2">
-        <f t="shared" si="52"/>
-        <v>34</v>
-      </c>
-      <c r="J37" s="2">
-        <f t="shared" si="41"/>
-        <v>6</v>
-      </c>
-      <c r="K37" s="2">
-        <f t="shared" si="42"/>
-        <v>81806</v>
+        <v>19539</v>
       </c>
       <c r="L37" s="2">
-        <f t="shared" si="43"/>
-        <v>80614</v>
+        <f t="shared" si="53"/>
+        <v>18794</v>
       </c>
       <c r="M37" s="3" cm="1">
         <f t="array" ref="M37">L37/INDEX($L$2:$L$26,26-J37)</f>
-        <v>0.64351685545736848</v>
+        <v>0.20501799934547835</v>
       </c>
       <c r="N37" s="3">
-        <f t="shared" si="44"/>
-        <v>0.34458526576759496</v>
+        <f t="shared" si="54"/>
+        <v>7.9439015318026579E-2</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="38"/>
-        <v>5 &gt;24h 98209 0 &gt;24h 96273 0</v>
+        <f t="shared" si="45"/>
+        <v>6 14:26:51 81806 0 14:30:49 80614 0</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" ref="E38:I38" si="53">FIND($D$28,$C38,D38+1)</f>
-        <v>7</v>
+        <f t="shared" si="46"/>
+        <v>11</v>
       </c>
       <c r="F38" s="2">
+        <f t="shared" si="47"/>
+        <v>17</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="48"/>
+        <v>19</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="49"/>
+        <v>28</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="50"/>
+        <v>34</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="51"/>
+        <v>6</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="52"/>
+        <v>81806</v>
+      </c>
+      <c r="L38" s="2">
         <f t="shared" si="53"/>
-        <v>13</v>
-      </c>
-      <c r="G38" s="2">
-        <f t="shared" si="53"/>
-        <v>15</v>
-      </c>
-      <c r="H38" s="2">
-        <f t="shared" si="53"/>
-        <v>20</v>
-      </c>
-      <c r="I38" s="2">
-        <f t="shared" si="53"/>
-        <v>26</v>
-      </c>
-      <c r="J38" s="2">
-        <f t="shared" si="41"/>
-        <v>5</v>
-      </c>
-      <c r="K38" s="2">
-        <f t="shared" si="42"/>
-        <v>98209</v>
-      </c>
-      <c r="L38" s="2">
-        <f t="shared" si="43"/>
-        <v>96273</v>
+        <v>80614</v>
       </c>
       <c r="M38" s="3" cm="1">
         <f t="array" ref="M38">L38/INDEX($L$2:$L$26,26-J38)</f>
-        <v>0.75660743616544723</v>
+        <v>0.63397217612872281</v>
       </c>
       <c r="N38" s="3">
-        <f t="shared" si="44"/>
-        <v>0.41151980166278401</v>
+        <f t="shared" si="54"/>
+        <v>0.34074155479660501</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" ref="C31:C39" si="54">TRIM(B39)</f>
-        <v>4 &gt;24h 121311 0 &gt;24h 119324 0</v>
+        <f t="shared" si="45"/>
+        <v>5 &gt;24h 98209 0 &gt;24h 96273 0</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" ref="E39:I39" si="55">FIND($D$28,$C39,D39+1)</f>
+        <f t="shared" si="46"/>
         <v>7</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="55"/>
-        <v>14</v>
+        <f t="shared" si="47"/>
+        <v>13</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="55"/>
-        <v>16</v>
+        <f t="shared" si="48"/>
+        <v>15</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" si="55"/>
-        <v>21</v>
+        <f t="shared" si="49"/>
+        <v>20</v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" si="55"/>
-        <v>28</v>
+        <f t="shared" si="50"/>
+        <v>26</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" ref="J31:J39" si="56">VALUE(LEFT(C39,D39-1))</f>
-        <v>4</v>
+        <f t="shared" si="51"/>
+        <v>5</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" ref="K31:K39" si="57">VALUE(MID($C39,E39+1,F39-E39-1))</f>
-        <v>121311</v>
+        <f t="shared" si="52"/>
+        <v>98209</v>
       </c>
       <c r="L39" s="2">
-        <f t="shared" ref="L31:L39" si="58">VALUE(MID($C39,H39+1,I39-H39-1))</f>
-        <v>119324</v>
+        <f t="shared" si="53"/>
+        <v>96273</v>
       </c>
       <c r="M39" s="3" cm="1">
         <f t="array" ref="M39">L39/INDEX($L$2:$L$26,26-J39)</f>
-        <v>0.79993564260191596</v>
+        <v>0.74623869282464284</v>
       </c>
       <c r="N39" s="3">
-        <f t="shared" ref="N31:N39" si="59">L39/$N$26</f>
-        <v>0.51005150783303765</v>
+        <f t="shared" si="54"/>
+        <v>0.4069294626855578</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" ref="C32:C42" si="60">TRIM(B40)</f>
-        <v>3 &gt;24h 138137 0 &gt;24h 131569 0</v>
+        <f t="shared" si="45"/>
+        <v>4 &gt;24h 121311 0 &gt;24h 119324 0</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" ref="E32:E42" si="61">FIND($D$28,$C40,D40+1)</f>
+        <f t="shared" si="46"/>
         <v>7</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" ref="F32:F42" si="62">FIND($D$28,$C40,E40+1)</f>
+        <f t="shared" si="47"/>
         <v>14</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" ref="G32:G42" si="63">FIND($D$28,$C40,F40+1)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="H40" s="2">
-        <f t="shared" ref="H32:H42" si="64">FIND($D$28,$C40,G40+1)</f>
+        <f t="shared" si="49"/>
         <v>21</v>
       </c>
       <c r="I40" s="2">
-        <f t="shared" ref="I32:I42" si="65">FIND($D$28,$C40,H40+1)</f>
+        <f t="shared" si="50"/>
         <v>28</v>
       </c>
       <c r="J40" s="2">
-        <f t="shared" ref="J30:J42" si="66">VALUE(LEFT(C40,D40-1))</f>
-        <v>3</v>
+        <f t="shared" si="51"/>
+        <v>4</v>
       </c>
       <c r="K40" s="2">
-        <f t="shared" ref="K32:K42" si="67">VALUE(MID($C40,E40+1,F40-E40-1))</f>
-        <v>138137</v>
+        <f t="shared" si="52"/>
+        <v>121311</v>
       </c>
       <c r="L40" s="2">
-        <f t="shared" ref="L32:L42" si="68">VALUE(MID($C40,H40+1,I40-H40-1))</f>
-        <v>131569</v>
+        <f t="shared" si="53"/>
+        <v>119324</v>
       </c>
       <c r="M40" s="3" cm="1">
         <f t="array" ref="M40">L40/INDEX($L$2:$L$26,26-J40)</f>
-        <v>0.81338443943000216</v>
+        <v>0.79007866091055967</v>
       </c>
       <c r="N40" s="3">
-        <f t="shared" ref="N32:N42" si="69">L40/$N$26</f>
-        <v>0.56239287011904504</v>
+        <f t="shared" si="54"/>
+        <v>0.50436208703885299</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="60"/>
-        <v>2 &gt;24h 164874 0 &gt;24h 157951 0</v>
+        <f t="shared" si="45"/>
+        <v>3 &gt;24h 138137 0 &gt;24h 131569 0</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="46"/>
         <v>7</v>
       </c>
       <c r="F41" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="47"/>
         <v>14</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="H41" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="49"/>
         <v>21</v>
       </c>
       <c r="I41" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="50"/>
         <v>28</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" si="66"/>
-        <v>2</v>
+        <f t="shared" si="51"/>
+        <v>3</v>
       </c>
       <c r="K41" s="2">
-        <f t="shared" si="67"/>
-        <v>164874</v>
+        <f t="shared" si="52"/>
+        <v>138137</v>
       </c>
       <c r="L41" s="2">
-        <f t="shared" si="68"/>
-        <v>157951</v>
+        <f t="shared" si="53"/>
+        <v>131569</v>
       </c>
       <c r="M41" s="3" cm="1">
         <f t="array" ref="M41">L41/INDEX($L$2:$L$26,26-J41)</f>
-        <v>0.84004424896424446</v>
+        <v>0.8034404636137692</v>
       </c>
       <c r="N41" s="3">
-        <f t="shared" si="69"/>
-        <v>0.67516296565432043</v>
+        <f t="shared" si="54"/>
+        <v>0.55611960233997226</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="60"/>
-        <v>1 &gt;24h 199524 0 &gt;24h 191817 0</v>
+        <f t="shared" si="45"/>
+        <v>2 &gt;24h 164874 0 &gt;24h 157951 0</v>
       </c>
       <c r="D42" s="2">
         <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="46"/>
         <v>7</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="47"/>
         <v>14</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="H42" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="49"/>
         <v>21</v>
       </c>
       <c r="I42" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="50"/>
         <v>28</v>
       </c>
       <c r="J42" s="2">
-        <f t="shared" si="66"/>
-        <v>1</v>
+        <f t="shared" si="51"/>
+        <v>2</v>
       </c>
       <c r="K42" s="2">
-        <f t="shared" si="67"/>
-        <v>199524</v>
+        <f t="shared" si="52"/>
+        <v>164874</v>
       </c>
       <c r="L42" s="2">
-        <f t="shared" si="68"/>
-        <v>191817</v>
+        <f t="shared" si="53"/>
+        <v>157951</v>
       </c>
       <c r="M42" s="3" cm="1">
         <f t="array" ref="M42">L42/INDEX($L$2:$L$26,26-J42)</f>
-        <v>0.85414477316851611</v>
+        <v>0.83101926142611371</v>
       </c>
       <c r="N42" s="3">
-        <f t="shared" si="69"/>
-        <v>0.8199234862895125</v>
+        <f t="shared" si="54"/>
+        <v>0.66763179251344129</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="45"/>
+        <v>1 &gt;24h 199524 0 &gt;24h 191817 0</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="46"/>
+        <v>7</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="47"/>
+        <v>14</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="48"/>
+        <v>16</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="49"/>
+        <v>21</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="50"/>
+        <v>28</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K43" s="2">
+        <f t="shared" si="52"/>
+        <v>199524</v>
+      </c>
+      <c r="L43" s="2">
+        <f t="shared" si="53"/>
+        <v>191817</v>
+      </c>
+      <c r="M43" s="3" cm="1">
+        <f t="array" ref="M43">L43/INDEX($L$2:$L$26,26-J43)</f>
+        <v>0.84504603727036431</v>
+      </c>
+      <c r="N43" s="3">
+        <f t="shared" si="54"/>
+        <v>0.81077756737564666</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N29:N42">
+  <conditionalFormatting sqref="N29:N43">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2265,7 +2321,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M29:M42">
+  <conditionalFormatting sqref="M29:M43">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>

--- a/Advent of Code-Tracking-2022.xlsx
+++ b/Advent of Code-Tracking-2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aforgiel\source\repos\AdventOfCode2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C39628-E0C7-4F6F-A452-CC9D46A4B3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BECED70-2935-41A4-8C25-61D66E05E196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{DFEEB8B9-5279-44FF-B8AD-25775064E720}"/>
   </bookViews>
@@ -147,49 +147,49 @@
     <t xml:space="preserve"> 15   06:33:24   14233      0   07:46:22    9889      0</t>
   </si>
   <si>
-    <t>15    9981  5807  ***</t>
-  </si>
-  <si>
-    <t>14   30942   969  *******</t>
-  </si>
-  <si>
-    <t>13   35604   954  ********</t>
-  </si>
-  <si>
-    <t>12   42874   813  *********</t>
-  </si>
-  <si>
-    <t>11   52547  7257  ***********</t>
-  </si>
-  <si>
-    <t>10   66353  4130  *************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9   65351  9030  **************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8   86036  5994  *****************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7   91670  1898  *****************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6  127157  1118  ***********************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5  129011  2236  ***********************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4  151028  2627  ***************************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3  163757  8124  ******************************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2  190069  8641  ***********************************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1  226990  9594  *****************************************</t>
+    <t>15   13522  6367  *****</t>
+  </si>
+  <si>
+    <t>14   31625   970  *******</t>
+  </si>
+  <si>
+    <t>13   35931  1000  ********</t>
+  </si>
+  <si>
+    <t>12   43165   811  *********</t>
+  </si>
+  <si>
+    <t>11   52814  7269  ***********</t>
+  </si>
+  <si>
+    <t>10   66628  4130  *************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9   65579  9050  **************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8   86299  6006  *****************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7   91897  1886  *****************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6  127452  1130  ***********************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5  129301  2259  ***********************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4  151362  2623  ***************************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3  164068  8168  ******************************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2  190432  8667  ***********************************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1  227380  9638  *****************************************</t>
   </si>
 </sst>
 </file>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7C4CDB-368A-4162-8945-6456BB339A8F}">
   <dimension ref="B2:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -956,7 +956,7 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
-        <v>15 9981 5807 ***</v>
+        <v>15 13522 6367 *****</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
@@ -964,27 +964,27 @@
       </c>
       <c r="E12" s="2">
         <f t="shared" ref="E12" si="17">FIND($D$28,$C12,D12+1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="3"/>
-        <v>5807</v>
+        <v>6367</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="4"/>
-        <v>9981</v>
+        <v>13522</v>
       </c>
       <c r="M12" s="5">
         <f t="shared" si="8"/>
-        <v>-0.6774287376381618</v>
+        <v>-0.57242687747035581</v>
       </c>
       <c r="N12" s="4">
         <f t="shared" si="5"/>
-        <v>15788</v>
+        <v>19889</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -993,7 +993,7 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>14 30942 969 *******</v>
+        <v>14 31625 970 *******</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
@@ -1009,19 +1009,19 @@
       </c>
       <c r="K13" s="2">
         <f t="shared" si="3"/>
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="4"/>
-        <v>30942</v>
+        <v>31625</v>
       </c>
       <c r="M13" s="5">
         <f t="shared" si="8"/>
-        <v>-0.13094034378159758</v>
+        <v>-0.11984080598925717</v>
       </c>
       <c r="N13" s="4">
         <f t="shared" si="5"/>
-        <v>31911</v>
+        <v>32595</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>13 35604 954 ********</v>
+        <v>13 35931 1000 ********</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
@@ -1042,23 +1042,23 @@
       </c>
       <c r="F14" s="2">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="3"/>
-        <v>954</v>
+        <v>1000</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="4"/>
-        <v>35604</v>
+        <v>35931</v>
       </c>
       <c r="M14" s="5">
         <f t="shared" si="8"/>
-        <v>-0.16956663712273168</v>
+        <v>-0.16758948221939074</v>
       </c>
       <c r="N14" s="4">
         <f t="shared" si="5"/>
-        <v>36558</v>
+        <v>36931</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" ref="C15" si="20">TRIM(B15)</f>
-        <v>12 42874 813 *********</v>
+        <v>12 43165 811 *********</v>
       </c>
       <c r="D15" s="2">
         <f>FIND($D$28,$C15)</f>
@@ -1083,19 +1083,19 @@
       </c>
       <c r="K15" s="2">
         <f>VALUE(MID($C15,E15+1,F15-E15-1))</f>
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="L15" s="2">
         <f>VALUE(MID($C15,D15+1,E15-D15-1))</f>
-        <v>42874</v>
+        <v>43165</v>
       </c>
       <c r="M15" s="5">
         <f t="shared" si="8"/>
-        <v>-0.18408282109349727</v>
+        <v>-0.18269776953080619</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" ref="N15" si="21">SUM(K15:L15)</f>
-        <v>43687</v>
+        <v>43976</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" ref="C16:C26" si="22">TRIM(B16)</f>
-        <v>11 52547 7257 ***********</v>
+        <v>11 52814 7269 ***********</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" ref="D16:D26" si="23">FIND($D$28,$C16)</f>
@@ -1120,19 +1120,19 @@
       </c>
       <c r="K16" s="2">
         <f t="shared" ref="K16:K26" si="25">VALUE(MID($C16,E16+1,F16-E16-1))</f>
-        <v>7257</v>
+        <v>7269</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" ref="L16:L26" si="26">VALUE(MID($C16,D16+1,E16-D16-1))</f>
-        <v>52547</v>
+        <v>52814</v>
       </c>
       <c r="M16" s="5">
         <f t="shared" si="8"/>
-        <v>-0.20806896447786838</v>
+        <v>-0.20733025154589657</v>
       </c>
       <c r="N16" s="4">
         <f t="shared" ref="N16:N26" si="27">SUM(K16:L16)</f>
-        <v>59804</v>
+        <v>60083</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" si="22"/>
-        <v>10 66353 4130 *************</v>
+        <v>10 66628 4130 *************</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="23"/>
@@ -1161,15 +1161,15 @@
       </c>
       <c r="L17" s="2">
         <f t="shared" si="26"/>
-        <v>66353</v>
+        <v>66628</v>
       </c>
       <c r="M17" s="5">
         <f t="shared" si="8"/>
-        <v>1.5332588636746136E-2</v>
+        <v>1.5995974321047823E-2</v>
       </c>
       <c r="N17" s="4">
         <f t="shared" si="27"/>
-        <v>70483</v>
+        <v>70758</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" si="22"/>
-        <v>9 65351 9030 **************</v>
+        <v>9 65579 9050 **************</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="23"/>
@@ -1194,19 +1194,19 @@
       </c>
       <c r="K18" s="2">
         <f t="shared" si="25"/>
-        <v>9030</v>
+        <v>9050</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="26"/>
-        <v>65351</v>
+        <v>65579</v>
       </c>
       <c r="M18" s="5">
         <f t="shared" si="8"/>
-        <v>-0.24042261378957641</v>
+        <v>-0.240095481987045</v>
       </c>
       <c r="N18" s="4">
         <f t="shared" si="27"/>
-        <v>74381</v>
+        <v>74629</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" si="22"/>
-        <v>8 86036 5994 *****************</v>
+        <v>8 86299 6006 *****************</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="23"/>
@@ -1231,19 +1231,19 @@
       </c>
       <c r="K19" s="2">
         <f t="shared" si="25"/>
-        <v>5994</v>
+        <v>6006</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="26"/>
-        <v>86036</v>
+        <v>86299</v>
       </c>
       <c r="M19" s="5">
         <f t="shared" si="8"/>
-        <v>-6.1459583287880482E-2</v>
+        <v>-6.0916025550344366E-2</v>
       </c>
       <c r="N19" s="4">
         <f t="shared" si="27"/>
-        <v>92030</v>
+        <v>92305</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" si="22"/>
-        <v>7 91670 1898 *****************</v>
+        <v>7 91897 1886 *****************</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="23"/>
@@ -1268,19 +1268,19 @@
       </c>
       <c r="K20" s="2">
         <f t="shared" si="25"/>
-        <v>1898</v>
+        <v>1886</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="26"/>
-        <v>91670</v>
+        <v>91897</v>
       </c>
       <c r="M20" s="5">
         <f t="shared" si="8"/>
-        <v>-0.27908019220333913</v>
+        <v>-0.27896776825785397</v>
       </c>
       <c r="N20" s="4">
         <f t="shared" si="27"/>
-        <v>93568</v>
+        <v>93783</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" si="22"/>
-        <v>6 127157 1118 ***********************</v>
+        <v>6 127452 1130 ***********************</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="23"/>
@@ -1305,19 +1305,19 @@
       </c>
       <c r="K21" s="2">
         <f t="shared" si="25"/>
-        <v>1118</v>
+        <v>1130</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="26"/>
-        <v>127157</v>
+        <v>127452</v>
       </c>
       <c r="M21" s="5">
         <f t="shared" si="8"/>
-        <v>-1.4370867600437154E-2</v>
+        <v>-1.429996674426337E-2</v>
       </c>
       <c r="N21" s="4">
         <f t="shared" si="27"/>
-        <v>128275</v>
+        <v>128582</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" si="22"/>
-        <v>5 129011 2236 ***********************</v>
+        <v>5 129301 2259 ***********************</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="23"/>
@@ -1342,19 +1342,19 @@
       </c>
       <c r="K22" s="2">
         <f t="shared" si="25"/>
-        <v>2236</v>
+        <v>2259</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="26"/>
-        <v>129011</v>
+        <v>129301</v>
       </c>
       <c r="M22" s="5">
         <f t="shared" si="8"/>
-        <v>-0.14578091479725619</v>
+        <v>-0.14574992402320264</v>
       </c>
       <c r="N22" s="4">
         <f t="shared" si="27"/>
-        <v>131247</v>
+        <v>131560</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" si="22"/>
-        <v>4 151028 2627 ***************************</v>
+        <v>4 151362 2623 ***************************</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="23"/>
@@ -1379,19 +1379,19 @@
       </c>
       <c r="K23" s="2">
         <f t="shared" si="25"/>
-        <v>2627</v>
+        <v>2623</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="26"/>
-        <v>151028</v>
+        <v>151362</v>
       </c>
       <c r="M23" s="5">
         <f t="shared" si="8"/>
-        <v>-7.7731028291920357E-2</v>
+        <v>-7.7443499036984664E-2</v>
       </c>
       <c r="N23" s="4">
         <f t="shared" si="27"/>
-        <v>153655</v>
+        <v>153985</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" si="22"/>
-        <v>3 163757 8124 ******************************</v>
+        <v>3 164068 8168 ******************************</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="23"/>
@@ -1416,19 +1416,19 @@
       </c>
       <c r="K24" s="2">
         <f t="shared" si="25"/>
-        <v>8124</v>
+        <v>8168</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="26"/>
-        <v>163757</v>
+        <v>164068</v>
       </c>
       <c r="M24" s="5">
         <f t="shared" si="8"/>
-        <v>-0.13843393714914054</v>
+        <v>-0.13844311880356241</v>
       </c>
       <c r="N24" s="4">
         <f t="shared" si="27"/>
-        <v>171881</v>
+        <v>172236</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" si="22"/>
-        <v>2 190069 8641 ***********************************</v>
+        <v>2 190432 8667 ***********************************</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="23"/>
@@ -1453,19 +1453,19 @@
       </c>
       <c r="K25" s="2">
         <f t="shared" si="25"/>
-        <v>8641</v>
+        <v>8667</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="26"/>
-        <v>190069</v>
+        <v>190432</v>
       </c>
       <c r="M25" s="5">
         <f t="shared" si="8"/>
-        <v>-0.1626547424996696</v>
+        <v>-0.16249450259477527</v>
       </c>
       <c r="N25" s="4">
         <f t="shared" si="27"/>
-        <v>198710</v>
+        <v>199099</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="C26" t="str">
         <f t="shared" si="22"/>
-        <v>1 226990 9594 *****************************************</v>
+        <v>1 227380 9638 *****************************************</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="23"/>
@@ -1490,15 +1490,15 @@
       </c>
       <c r="K26" s="2">
         <f t="shared" si="25"/>
-        <v>9594</v>
+        <v>9638</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="26"/>
-        <v>226990</v>
+        <v>227380</v>
       </c>
       <c r="N26" s="4">
         <f t="shared" si="27"/>
-        <v>236584</v>
+        <v>237018</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
@@ -1520,7 +1520,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" ref="C29:C39" si="38">TRIM(B29)</f>
+        <f t="shared" ref="C29" si="38">TRIM(B29)</f>
         <v>15 06:33:24 14233 0 07:46:22 9889 0</v>
       </c>
       <c r="D29" s="2">
@@ -1548,24 +1548,24 @@
         <v>34</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" ref="J29:J39" si="41">VALUE(LEFT(C29,D29-1))</f>
+        <f t="shared" ref="J29" si="41">VALUE(LEFT(C29,D29-1))</f>
         <v>15</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" ref="K29:K39" si="42">VALUE(MID($C29,E29+1,F29-E29-1))</f>
+        <f t="shared" ref="K29" si="42">VALUE(MID($C29,E29+1,F29-E29-1))</f>
         <v>14233</v>
       </c>
       <c r="L29" s="2">
-        <f t="shared" ref="L29:L39" si="43">VALUE(MID($C29,H29+1,I29-H29-1))</f>
+        <f t="shared" ref="L29" si="43">VALUE(MID($C29,H29+1,I29-H29-1))</f>
         <v>9889</v>
       </c>
       <c r="M29" s="3" cm="1">
-        <f t="array" ref="M29">L29/INDEX($L$2:$L$26,26-J29)</f>
-        <v>0.99078248672477709</v>
+        <f t="array" ref="M29">L29/INDEX($N$2:$N$26,26-J29)</f>
+        <v>0.49720951279601788</v>
       </c>
       <c r="N29" s="3">
-        <f t="shared" ref="N29:N39" si="44">L29/$N$26</f>
-        <v>4.1799107293815307E-2</v>
+        <f t="shared" ref="N29" si="44">L29/$N$26</f>
+        <v>4.1722569593870509E-2</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
@@ -1613,12 +1613,12 @@
         <v>12187</v>
       </c>
       <c r="M30" s="3" cm="1">
-        <f t="array" ref="M30">L30/INDEX($L$2:$L$26,26-J30)</f>
-        <v>0.39386594273156228</v>
+        <f t="array" ref="M30">L30/INDEX($N$2:$N$26,26-J30)</f>
+        <v>0.37389170118116277</v>
       </c>
       <c r="N30" s="3">
         <f t="shared" ref="N30:N43" si="54">L30/$N$26</f>
-        <v>5.151235924661008E-2</v>
+        <v>5.1418035760997058E-2</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
@@ -1666,12 +1666,12 @@
         <v>12042</v>
       </c>
       <c r="M31" s="3" cm="1">
-        <f t="array" ref="M31">L31/INDEX($L$2:$L$26,26-J31)</f>
-        <v>0.33822042467138524</v>
+        <f t="array" ref="M31">L31/INDEX($N$2:$N$26,26-J31)</f>
+        <v>0.32606753134223282</v>
       </c>
       <c r="N31" s="3">
         <f t="shared" si="54"/>
-        <v>5.0899469110337131E-2</v>
+        <v>5.0806267878388982E-2</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
@@ -1719,12 +1719,12 @@
         <v>17372</v>
       </c>
       <c r="M32" s="3" cm="1">
-        <f t="array" ref="M32">L32/INDEX($L$2:$L$26,26-J32)</f>
-        <v>0.40518729299808742</v>
+        <f t="array" ref="M32">L32/INDEX($N$2:$N$26,26-J32)</f>
+        <v>0.3950336547207568</v>
       </c>
       <c r="N32" s="3">
         <f t="shared" si="54"/>
-        <v>7.3428465154025638E-2</v>
+        <v>7.3294011425292599E-2</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
@@ -1772,12 +1772,12 @@
         <v>17311</v>
       </c>
       <c r="M33" s="3" cm="1">
-        <f t="array" ref="M33">L33/INDEX($L$2:$L$26,26-J33)</f>
-        <v>0.32943840752088605</v>
+        <f t="array" ref="M33">L33/INDEX($N$2:$N$26,26-J33)</f>
+        <v>0.28811810329044824</v>
       </c>
       <c r="N33" s="3">
         <f t="shared" si="54"/>
-        <v>7.3170628613938388E-2</v>
+        <v>7.3036647005712649E-2</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
@@ -1825,12 +1825,12 @@
         <v>41184</v>
       </c>
       <c r="M34" s="3" cm="1">
-        <f t="array" ref="M34">L34/INDEX($L$2:$L$26,26-J34)</f>
-        <v>0.62068030081533621</v>
+        <f t="array" ref="M34">L34/INDEX($N$2:$N$26,26-J34)</f>
+        <v>0.58204019333502921</v>
       </c>
       <c r="N34" s="3">
         <f t="shared" si="54"/>
-        <v>0.17407770601562236</v>
+        <v>0.17375895501607472</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
@@ -1878,12 +1878,12 @@
         <v>10583</v>
       </c>
       <c r="M35" s="3" cm="1">
-        <f t="array" ref="M35">L35/INDEX($L$2:$L$26,26-J35)</f>
-        <v>0.16194090373521447</v>
+        <f t="array" ref="M35">L35/INDEX($N$2:$N$26,26-J35)</f>
+        <v>0.14180814428707339</v>
       </c>
       <c r="N35" s="3">
         <f t="shared" si="54"/>
-        <v>4.4732526290873431E-2</v>
+        <v>4.4650617252698109E-2</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
@@ -1931,12 +1931,12 @@
         <v>16187</v>
       </c>
       <c r="M36" s="3" cm="1">
-        <f t="array" ref="M36">L36/INDEX($L$2:$L$26,26-J36)</f>
-        <v>0.18814217304384212</v>
+        <f t="array" ref="M36">L36/INDEX($N$2:$N$26,26-J36)</f>
+        <v>0.1753642814582092</v>
       </c>
       <c r="N36" s="3">
         <f t="shared" si="54"/>
-        <v>6.8419673350691504E-2</v>
+        <v>6.8294391143288696E-2</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
@@ -1984,12 +1984,12 @@
         <v>18794</v>
       </c>
       <c r="M37" s="3" cm="1">
-        <f t="array" ref="M37">L37/INDEX($L$2:$L$26,26-J37)</f>
-        <v>0.20501799934547835</v>
+        <f t="array" ref="M37">L37/INDEX($N$2:$N$26,26-J37)</f>
+        <v>0.20039879295821203</v>
       </c>
       <c r="N37" s="3">
         <f t="shared" si="54"/>
-        <v>7.9439015318026579E-2</v>
+        <v>7.9293555763697274E-2</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
@@ -2037,12 +2037,12 @@
         <v>80614</v>
       </c>
       <c r="M38" s="3" cm="1">
-        <f t="array" ref="M38">L38/INDEX($L$2:$L$26,26-J38)</f>
-        <v>0.63397217612872281</v>
+        <f t="array" ref="M38">L38/INDEX($N$2:$N$26,26-J38)</f>
+        <v>0.62694622886562656</v>
       </c>
       <c r="N38" s="3">
         <f t="shared" si="54"/>
-        <v>0.34074155479660501</v>
+        <v>0.34011762819701458</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
@@ -2090,12 +2090,12 @@
         <v>96273</v>
       </c>
       <c r="M39" s="3" cm="1">
-        <f t="array" ref="M39">L39/INDEX($L$2:$L$26,26-J39)</f>
-        <v>0.74623869282464284</v>
+        <f t="array" ref="M39">L39/INDEX($N$2:$N$26,26-J39)</f>
+        <v>0.73178017634539372</v>
       </c>
       <c r="N39" s="3">
         <f t="shared" si="54"/>
-        <v>0.4069294626855578</v>
+        <v>0.40618434042984075</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
@@ -2143,12 +2143,12 @@
         <v>119324</v>
       </c>
       <c r="M40" s="3" cm="1">
-        <f t="array" ref="M40">L40/INDEX($L$2:$L$26,26-J40)</f>
-        <v>0.79007866091055967</v>
+        <f t="array" ref="M40">L40/INDEX($N$2:$N$26,26-J40)</f>
+        <v>0.77490664675130694</v>
       </c>
       <c r="N40" s="3">
         <f t="shared" si="54"/>
-        <v>0.50436208703885299</v>
+        <v>0.5034385574091419</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
@@ -2196,12 +2196,12 @@
         <v>131569</v>
       </c>
       <c r="M41" s="3" cm="1">
-        <f t="array" ref="M41">L41/INDEX($L$2:$L$26,26-J41)</f>
-        <v>0.8034404636137692</v>
+        <f t="array" ref="M41">L41/INDEX($N$2:$N$26,26-J41)</f>
+        <v>0.76388792122436655</v>
       </c>
       <c r="N41" s="3">
         <f t="shared" si="54"/>
-        <v>0.55611960233997226</v>
+        <v>0.55510130032318217</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
@@ -2249,12 +2249,12 @@
         <v>157951</v>
       </c>
       <c r="M42" s="3" cm="1">
-        <f t="array" ref="M42">L42/INDEX($L$2:$L$26,26-J42)</f>
-        <v>0.83101926142611371</v>
+        <f t="array" ref="M42">L42/INDEX($N$2:$N$26,26-J42)</f>
+        <v>0.79332894690581068</v>
       </c>
       <c r="N42" s="3">
         <f t="shared" si="54"/>
-        <v>0.66763179251344129</v>
+        <v>0.66640930224708672</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
@@ -2302,17 +2302,17 @@
         <v>191817</v>
       </c>
       <c r="M43" s="3" cm="1">
-        <f t="array" ref="M43">L43/INDEX($L$2:$L$26,26-J43)</f>
-        <v>0.84504603727036431</v>
+        <f t="array" ref="M43">L43/INDEX($N$2:$N$26,26-J43)</f>
+        <v>0.80929296509125892</v>
       </c>
       <c r="N43" s="3">
         <f t="shared" si="54"/>
-        <v>0.81077756737564666</v>
+        <v>0.80929296509125892</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="N29:N43">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2322,17 +2322,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:M43">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M25">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/Advent of Code-Tracking-2022.xlsx
+++ b/Advent of Code-Tracking-2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aforgiel\source\repos\AdventOfCode2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BECED70-2935-41A4-8C25-61D66E05E196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2943D1C4-F38E-465B-A4E6-1158DB56126C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{DFEEB8B9-5279-44FF-B8AD-25775064E720}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{DFEEB8B9-5279-44FF-B8AD-25775064E720}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracking" sheetId="1" r:id="rId1"/>
@@ -147,49 +147,49 @@
     <t xml:space="preserve"> 15   06:33:24   14233      0   07:46:22    9889      0</t>
   </si>
   <si>
-    <t>15   13522  6367  *****</t>
-  </si>
-  <si>
-    <t>14   31625   970  *******</t>
-  </si>
-  <si>
-    <t>13   35931  1000  ********</t>
-  </si>
-  <si>
-    <t>12   43165   811  *********</t>
-  </si>
-  <si>
-    <t>11   52814  7269  ***********</t>
-  </si>
-  <si>
-    <t>10   66628  4130  *************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9   65579  9050  **************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8   86299  6006  *****************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7   91897  1886  *****************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6  127452  1130  ***********************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5  129301  2259  ***********************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4  151362  2623  ***************************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3  164068  8168  ******************************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2  190432  8667  ***********************************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1  227380  9638  *****************************************</t>
+    <t>15   14723  6476  *****</t>
+  </si>
+  <si>
+    <t>14   31857   946  *******</t>
+  </si>
+  <si>
+    <t>13   36069   995  ********</t>
+  </si>
+  <si>
+    <t>12   43255   803  *********</t>
+  </si>
+  <si>
+    <t>11   52911  7275  ***********</t>
+  </si>
+  <si>
+    <t>10   66722  4145  *************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9   65655  9067  **************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8   86398  5984  *****************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7   91979  1894  *****************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6  127547  1132  ***********************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5  129392  2264  ***********************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4  151468  2635  ***************************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3  164192  8159  ******************************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2  190564  8672  ***********************************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1  227525  9636  *****************************************</t>
   </si>
 </sst>
 </file>
@@ -565,12 +565,12 @@
   <dimension ref="B2:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="3.140625" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1" outlineLevel="1"/>
@@ -956,7 +956,7 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
-        <v>15 13522 6367 *****</v>
+        <v>15 14723 6476 *****</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
@@ -972,19 +972,19 @@
       </c>
       <c r="K12" s="2">
         <f t="shared" si="3"/>
-        <v>6367</v>
+        <v>6476</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="4"/>
-        <v>13522</v>
+        <v>14723</v>
       </c>
       <c r="M12" s="5">
         <f t="shared" si="8"/>
-        <v>-0.57242687747035581</v>
+        <v>-0.53784097686536714</v>
       </c>
       <c r="N12" s="4">
         <f t="shared" si="5"/>
-        <v>19889</v>
+        <v>21199</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -993,7 +993,7 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>14 31625 970 *******</v>
+        <v>14 31857 946 *******</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
@@ -1009,19 +1009,19 @@
       </c>
       <c r="K13" s="2">
         <f t="shared" si="3"/>
-        <v>970</v>
+        <v>946</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="4"/>
-        <v>31625</v>
+        <v>31857</v>
       </c>
       <c r="M13" s="5">
         <f t="shared" si="8"/>
-        <v>-0.11984080598925717</v>
+        <v>-0.1167761789902686</v>
       </c>
       <c r="N13" s="4">
         <f t="shared" si="5"/>
-        <v>32595</v>
+        <v>32803</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>13 35931 1000 ********</v>
+        <v>13 36069 995 ********</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
@@ -1042,23 +1042,23 @@
       </c>
       <c r="F14" s="2">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="4"/>
-        <v>35931</v>
+        <v>36069</v>
       </c>
       <c r="M14" s="5">
         <f t="shared" si="8"/>
-        <v>-0.16758948221939074</v>
+        <v>-0.16613108311177893</v>
       </c>
       <c r="N14" s="4">
         <f t="shared" si="5"/>
-        <v>36931</v>
+        <v>37064</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" ref="C15" si="20">TRIM(B15)</f>
-        <v>12 43165 811 *********</v>
+        <v>12 43255 803 *********</v>
       </c>
       <c r="D15" s="2">
         <f>FIND($D$28,$C15)</f>
@@ -1083,19 +1083,19 @@
       </c>
       <c r="K15" s="2">
         <f>VALUE(MID($C15,E15+1,F15-E15-1))</f>
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="L15" s="2">
         <f>VALUE(MID($C15,D15+1,E15-D15-1))</f>
-        <v>43165</v>
+        <v>43255</v>
       </c>
       <c r="M15" s="5">
         <f t="shared" si="8"/>
-        <v>-0.18269776953080619</v>
+        <v>-0.18249513333711331</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" ref="N15" si="21">SUM(K15:L15)</f>
-        <v>43976</v>
+        <v>44058</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" ref="C16:C26" si="22">TRIM(B16)</f>
-        <v>11 52814 7269 ***********</v>
+        <v>11 52911 7275 ***********</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" ref="D16:D26" si="23">FIND($D$28,$C16)</f>
@@ -1120,19 +1120,19 @@
       </c>
       <c r="K16" s="2">
         <f t="shared" ref="K16:K26" si="25">VALUE(MID($C16,E16+1,F16-E16-1))</f>
-        <v>7269</v>
+        <v>7275</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" ref="L16:L26" si="26">VALUE(MID($C16,D16+1,E16-D16-1))</f>
-        <v>52814</v>
+        <v>52911</v>
       </c>
       <c r="M16" s="5">
         <f t="shared" si="8"/>
-        <v>-0.20733025154589657</v>
+        <v>-0.20699319564761243</v>
       </c>
       <c r="N16" s="4">
         <f t="shared" ref="N16:N26" si="27">SUM(K16:L16)</f>
-        <v>60083</v>
+        <v>60186</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" si="22"/>
-        <v>10 66628 4130 *************</v>
+        <v>10 66722 4145 *************</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="23"/>
@@ -1157,19 +1157,19 @@
       </c>
       <c r="K17" s="2">
         <f t="shared" si="25"/>
-        <v>4130</v>
+        <v>4145</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="26"/>
-        <v>66628</v>
+        <v>66722</v>
       </c>
       <c r="M17" s="5">
         <f t="shared" si="8"/>
-        <v>1.5995974321047823E-2</v>
+        <v>1.6251618307821181E-2</v>
       </c>
       <c r="N17" s="4">
         <f t="shared" si="27"/>
-        <v>70758</v>
+        <v>70867</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" si="22"/>
-        <v>9 65579 9050 **************</v>
+        <v>9 65655 9067 **************</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="23"/>
@@ -1194,19 +1194,19 @@
       </c>
       <c r="K18" s="2">
         <f t="shared" si="25"/>
-        <v>9050</v>
+        <v>9067</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="26"/>
-        <v>65579</v>
+        <v>65655</v>
       </c>
       <c r="M18" s="5">
         <f t="shared" si="8"/>
-        <v>-0.240095481987045</v>
+        <v>-0.24008657607814998</v>
       </c>
       <c r="N18" s="4">
         <f t="shared" si="27"/>
-        <v>74629</v>
+        <v>74722</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" si="22"/>
-        <v>8 86299 6006 *****************</v>
+        <v>8 86398 5984 *****************</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="23"/>
@@ -1231,19 +1231,19 @@
       </c>
       <c r="K19" s="2">
         <f t="shared" si="25"/>
-        <v>6006</v>
+        <v>5984</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="26"/>
-        <v>86299</v>
+        <v>86398</v>
       </c>
       <c r="M19" s="5">
         <f t="shared" si="8"/>
-        <v>-6.0916025550344366E-2</v>
+        <v>-6.0676893638765383E-2</v>
       </c>
       <c r="N19" s="4">
         <f t="shared" si="27"/>
-        <v>92305</v>
+        <v>92382</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" si="22"/>
-        <v>7 91897 1886 *****************</v>
+        <v>7 91979 1894 *****************</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="23"/>
@@ -1268,19 +1268,19 @@
       </c>
       <c r="K20" s="2">
         <f t="shared" si="25"/>
-        <v>1886</v>
+        <v>1894</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="26"/>
-        <v>91897</v>
+        <v>91979</v>
       </c>
       <c r="M20" s="5">
         <f t="shared" si="8"/>
-        <v>-0.27896776825785397</v>
+        <v>-0.27886190972739455</v>
       </c>
       <c r="N20" s="4">
         <f t="shared" si="27"/>
-        <v>93783</v>
+        <v>93873</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" si="22"/>
-        <v>6 127452 1130 ***********************</v>
+        <v>6 127547 1132 ***********************</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="23"/>
@@ -1305,19 +1305,19 @@
       </c>
       <c r="K21" s="2">
         <f t="shared" si="25"/>
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="26"/>
-        <v>127452</v>
+        <v>127547</v>
       </c>
       <c r="M21" s="5">
         <f t="shared" si="8"/>
-        <v>-1.429996674426337E-2</v>
+        <v>-1.4258995919376738E-2</v>
       </c>
       <c r="N21" s="4">
         <f t="shared" si="27"/>
-        <v>128582</v>
+        <v>128679</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" si="22"/>
-        <v>5 129301 2259 ***********************</v>
+        <v>5 129392 2264 ***********************</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="23"/>
@@ -1342,19 +1342,19 @@
       </c>
       <c r="K22" s="2">
         <f t="shared" si="25"/>
-        <v>2259</v>
+        <v>2264</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="26"/>
-        <v>129301</v>
+        <v>129392</v>
       </c>
       <c r="M22" s="5">
         <f t="shared" si="8"/>
-        <v>-0.14574992402320264</v>
+        <v>-0.14574695645284808</v>
       </c>
       <c r="N22" s="4">
         <f t="shared" si="27"/>
-        <v>131560</v>
+        <v>131656</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" si="22"/>
-        <v>4 151362 2623 ***************************</v>
+        <v>4 151468 2635 ***************************</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="23"/>
@@ -1379,19 +1379,19 @@
       </c>
       <c r="K23" s="2">
         <f t="shared" si="25"/>
-        <v>2623</v>
+        <v>2635</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="26"/>
-        <v>151362</v>
+        <v>151468</v>
       </c>
       <c r="M23" s="5">
         <f t="shared" si="8"/>
-        <v>-7.7443499036984664E-2</v>
+        <v>-7.749464042097054E-2</v>
       </c>
       <c r="N23" s="4">
         <f t="shared" si="27"/>
-        <v>153985</v>
+        <v>154103</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" si="22"/>
-        <v>3 164068 8168 ******************************</v>
+        <v>3 164192 8159 ******************************</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="23"/>
@@ -1416,19 +1416,19 @@
       </c>
       <c r="K24" s="2">
         <f t="shared" si="25"/>
-        <v>8168</v>
+        <v>8159</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="26"/>
-        <v>164068</v>
+        <v>164192</v>
       </c>
       <c r="M24" s="5">
         <f t="shared" si="8"/>
-        <v>-0.13844311880356241</v>
+        <v>-0.13838920257761167</v>
       </c>
       <c r="N24" s="4">
         <f t="shared" si="27"/>
-        <v>172236</v>
+        <v>172351</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" si="22"/>
-        <v>2 190432 8667 ***********************************</v>
+        <v>2 190564 8672 ***********************************</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="23"/>
@@ -1453,19 +1453,19 @@
       </c>
       <c r="K25" s="2">
         <f t="shared" si="25"/>
-        <v>8667</v>
+        <v>8672</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="26"/>
-        <v>190432</v>
+        <v>190564</v>
       </c>
       <c r="M25" s="5">
         <f t="shared" si="8"/>
-        <v>-0.16249450259477527</v>
+        <v>-0.16244808262828259</v>
       </c>
       <c r="N25" s="4">
         <f t="shared" si="27"/>
-        <v>199099</v>
+        <v>199236</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="C26" t="str">
         <f t="shared" si="22"/>
-        <v>1 227380 9638 *****************************************</v>
+        <v>1 227525 9636 *****************************************</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="23"/>
@@ -1490,15 +1490,15 @@
       </c>
       <c r="K26" s="2">
         <f t="shared" si="25"/>
-        <v>9638</v>
+        <v>9636</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="26"/>
-        <v>227380</v>
+        <v>227525</v>
       </c>
       <c r="N26" s="4">
         <f t="shared" si="27"/>
-        <v>237018</v>
+        <v>237161</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
@@ -1561,11 +1561,11 @@
       </c>
       <c r="M29" s="3" cm="1">
         <f t="array" ref="M29">L29/INDEX($N$2:$N$26,26-J29)</f>
-        <v>0.49720951279601788</v>
+        <v>0.46648426812585497</v>
       </c>
       <c r="N29" s="3">
         <f t="shared" ref="N29" si="44">L29/$N$26</f>
-        <v>4.1722569593870509E-2</v>
+        <v>4.1697412306407881E-2</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
@@ -1614,11 +1614,11 @@
       </c>
       <c r="M30" s="3" cm="1">
         <f t="array" ref="M30">L30/INDEX($N$2:$N$26,26-J30)</f>
-        <v>0.37389170118116277</v>
+        <v>0.37152089747888911</v>
       </c>
       <c r="N30" s="3">
         <f t="shared" ref="N30:N43" si="54">L30/$N$26</f>
-        <v>5.1418035760997058E-2</v>
+        <v>5.1387032437879752E-2</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
@@ -1667,11 +1667,11 @@
       </c>
       <c r="M31" s="3" cm="1">
         <f t="array" ref="M31">L31/INDEX($N$2:$N$26,26-J31)</f>
-        <v>0.32606753134223282</v>
+        <v>0.32489747463846319</v>
       </c>
       <c r="N31" s="3">
         <f t="shared" si="54"/>
-        <v>5.0806267878388982E-2</v>
+        <v>5.0775633430454416E-2</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
@@ -1720,11 +1720,11 @@
       </c>
       <c r="M32" s="3" cm="1">
         <f t="array" ref="M32">L32/INDEX($N$2:$N$26,26-J32)</f>
-        <v>0.3950336547207568</v>
+        <v>0.39429842480366789</v>
       </c>
       <c r="N32" s="3">
         <f t="shared" si="54"/>
-        <v>7.3294011425292599E-2</v>
+        <v>7.3249817634433986E-2</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
@@ -1773,11 +1773,11 @@
       </c>
       <c r="M33" s="3" cm="1">
         <f t="array" ref="M33">L33/INDEX($N$2:$N$26,26-J33)</f>
-        <v>0.28811810329044824</v>
+        <v>0.28762502907652943</v>
       </c>
       <c r="N33" s="3">
         <f t="shared" si="54"/>
-        <v>7.3036647005712649E-2</v>
+        <v>7.2992608396827474E-2</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
@@ -1826,11 +1826,11 @@
       </c>
       <c r="M34" s="3" cm="1">
         <f t="array" ref="M34">L34/INDEX($N$2:$N$26,26-J34)</f>
-        <v>0.58204019333502921</v>
+        <v>0.58114496168879737</v>
       </c>
       <c r="N34" s="3">
         <f t="shared" si="54"/>
-        <v>0.17375895501607472</v>
+        <v>0.17365418428831048</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
@@ -1879,11 +1879,11 @@
       </c>
       <c r="M35" s="3" cm="1">
         <f t="array" ref="M35">L35/INDEX($N$2:$N$26,26-J35)</f>
-        <v>0.14180814428707339</v>
+        <v>0.14163164797516126</v>
       </c>
       <c r="N35" s="3">
         <f t="shared" si="54"/>
-        <v>4.4650617252698109E-2</v>
+        <v>4.4623694452291904E-2</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
@@ -1932,11 +1932,11 @@
       </c>
       <c r="M36" s="3" cm="1">
         <f t="array" ref="M36">L36/INDEX($N$2:$N$26,26-J36)</f>
-        <v>0.1753642814582092</v>
+        <v>0.17521811608321969</v>
       </c>
       <c r="N36" s="3">
         <f t="shared" si="54"/>
-        <v>6.8294391143288696E-2</v>
+        <v>6.8253211953061416E-2</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
@@ -1985,11 +1985,11 @@
       </c>
       <c r="M37" s="3" cm="1">
         <f t="array" ref="M37">L37/INDEX($N$2:$N$26,26-J37)</f>
-        <v>0.20039879295821203</v>
+        <v>0.20020666219253672</v>
       </c>
       <c r="N37" s="3">
         <f t="shared" si="54"/>
-        <v>7.9293555763697274E-2</v>
+        <v>7.9245744452081074E-2</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
@@ -2038,11 +2038,11 @@
       </c>
       <c r="M38" s="3" cm="1">
         <f t="array" ref="M38">L38/INDEX($N$2:$N$26,26-J38)</f>
-        <v>0.62694622886562656</v>
+        <v>0.62647362817553753</v>
       </c>
       <c r="N38" s="3">
         <f t="shared" si="54"/>
-        <v>0.34011762819701458</v>
+        <v>0.33991254885921379</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
@@ -2091,11 +2091,11 @@
       </c>
       <c r="M39" s="3" cm="1">
         <f t="array" ref="M39">L39/INDEX($N$2:$N$26,26-J39)</f>
-        <v>0.73178017634539372</v>
+        <v>0.73124658200157988</v>
       </c>
       <c r="N39" s="3">
         <f t="shared" si="54"/>
-        <v>0.40618434042984075</v>
+        <v>0.40593942511627124</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
@@ -2144,11 +2144,11 @@
       </c>
       <c r="M40" s="3" cm="1">
         <f t="array" ref="M40">L40/INDEX($N$2:$N$26,26-J40)</f>
-        <v>0.77490664675130694</v>
+        <v>0.77431328397240806</v>
       </c>
       <c r="N40" s="3">
         <f t="shared" si="54"/>
-        <v>0.5034385574091419</v>
+        <v>0.50313500111738441</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
@@ -2197,11 +2197,11 @@
       </c>
       <c r="M41" s="3" cm="1">
         <f t="array" ref="M41">L41/INDEX($N$2:$N$26,26-J41)</f>
-        <v>0.76388792122436655</v>
+        <v>0.76337822234857933</v>
       </c>
       <c r="N41" s="3">
         <f t="shared" si="54"/>
-        <v>0.55510130032318217</v>
+        <v>0.55476659315823429</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
@@ -2250,11 +2250,11 @@
       </c>
       <c r="M42" s="3" cm="1">
         <f t="array" ref="M42">L42/INDEX($N$2:$N$26,26-J42)</f>
-        <v>0.79332894690581068</v>
+        <v>0.79278343271296348</v>
       </c>
       <c r="N42" s="3">
         <f t="shared" si="54"/>
-        <v>0.66640930224708672</v>
+        <v>0.66600748015061495</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
@@ -2303,11 +2303,11 @@
       </c>
       <c r="M43" s="3" cm="1">
         <f t="array" ref="M43">L43/INDEX($N$2:$N$26,26-J43)</f>
-        <v>0.80929296509125892</v>
+        <v>0.80880498901590059</v>
       </c>
       <c r="N43" s="3">
         <f t="shared" si="54"/>
-        <v>0.80929296509125892</v>
+        <v>0.80880498901590059</v>
       </c>
     </row>
   </sheetData>
